--- a/data/HDR_good.xlsx
+++ b/data/HDR_good.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/eScienceWinterSchool/PythonSession/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F7089-8875-5F41-9C7F-A6CB304D6780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B7895-E83D-9842-B99D-E665EB2DECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26020" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>HDI rank</t>
   </si>
@@ -625,21 +625,6 @@
   </si>
   <si>
     <t>GNIPC</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>VERY HIGH</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
-    <t>LOW</t>
   </si>
 </sst>
 </file>
@@ -652,7 +637,7 @@
     <numFmt numFmtId="165" formatCode="#,###,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,###,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -687,30 +672,17 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -727,9 +699,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,9 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,5018 +1051,4441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="3" width="45.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="4"/>
-    <col min="11" max="11" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="45.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4"/>
+    <col min="10" max="10" width="2" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>198</v>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="D1" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="C2" s="5">
         <v>0.96199999999999997</v>
       </c>
+      <c r="D2" s="6">
+        <v>83.987200000000001</v>
+      </c>
       <c r="E2" s="6">
-        <v>83.987200000000001</v>
+        <v>16.50029945</v>
       </c>
       <c r="F2" s="6">
-        <v>16.50029945</v>
-      </c>
-      <c r="G2" s="6">
         <v>13.85966015</v>
       </c>
-      <c r="H2" s="11">
+      <c r="G2" s="10">
         <v>66933.004539999994</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="C3" s="5">
         <v>0.96099999999999997</v>
       </c>
+      <c r="D3" s="6">
+        <v>83.233900000000006</v>
+      </c>
       <c r="E3" s="6">
-        <v>83.233900000000006</v>
+        <v>18.185199740000002</v>
       </c>
       <c r="F3" s="6">
-        <v>18.185199740000002</v>
-      </c>
-      <c r="G3" s="6">
         <v>13.00362968</v>
       </c>
-      <c r="H3" s="11">
+      <c r="G3" s="10">
         <v>64660.106220000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="C4" s="5">
         <v>0.95899999999999996</v>
       </c>
+      <c r="D4" s="6">
+        <v>82.678200000000004</v>
+      </c>
       <c r="E4" s="6">
-        <v>82.678200000000004</v>
+        <v>19.163059230000002</v>
       </c>
       <c r="F4" s="6">
-        <v>19.163059230000002</v>
-      </c>
-      <c r="G4" s="6">
         <v>13.76716995</v>
       </c>
-      <c r="H4" s="11">
+      <c r="G4" s="10">
         <v>55782.049809999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C5" s="5">
         <v>0.95199999999999996</v>
       </c>
+      <c r="D5" s="6">
+        <v>85.473399999999998</v>
+      </c>
       <c r="E5" s="6">
-        <v>85.473399999999998</v>
+        <v>17.278169630000001</v>
       </c>
       <c r="F5" s="6">
-        <v>17.278169630000001</v>
-      </c>
-      <c r="G5" s="6">
         <v>12.22620964</v>
       </c>
-      <c r="H5" s="11">
+      <c r="G5" s="10">
         <v>62606.845399999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C6" s="5">
         <v>0.95099999999999996</v>
       </c>
+      <c r="D6" s="6">
+        <v>84.526499999999999</v>
+      </c>
       <c r="E6" s="6">
-        <v>84.526499999999999</v>
+        <v>21.054590229999999</v>
       </c>
       <c r="F6" s="6">
-        <v>21.054590229999999</v>
-      </c>
-      <c r="G6" s="6">
         <v>12.726819989999999</v>
       </c>
-      <c r="H6" s="11">
+      <c r="G6" s="10">
         <v>49238.433349999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="C7" s="5">
         <v>0.94799999999999995</v>
       </c>
+      <c r="D7" s="6">
+        <v>81.375299999999996</v>
+      </c>
       <c r="E7" s="6">
-        <v>81.375299999999996</v>
+        <v>18.714799880000001</v>
       </c>
       <c r="F7" s="6">
-        <v>18.714799880000001</v>
-      </c>
-      <c r="G7" s="6">
         <v>12.96049023</v>
       </c>
-      <c r="H7" s="11">
+      <c r="G7" s="10">
         <v>60364.785949999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5">
+      <c r="C8" s="5">
         <v>0.94699999999999995</v>
       </c>
+      <c r="D8" s="6">
+        <v>82.9833</v>
+      </c>
       <c r="E8" s="6">
-        <v>82.9833</v>
+        <v>19.418529509999999</v>
       </c>
       <c r="F8" s="6">
-        <v>19.418529509999999</v>
-      </c>
-      <c r="G8" s="6">
         <v>12.609720230000001</v>
       </c>
-      <c r="H8" s="11">
+      <c r="G8" s="10">
         <v>54489.37401</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5">
         <v>0.94499999999999995</v>
       </c>
+      <c r="D9" s="6">
+        <v>81.997600000000006</v>
+      </c>
       <c r="E9" s="6">
-        <v>81.997600000000006</v>
+        <v>18.94522095</v>
       </c>
       <c r="F9" s="6">
-        <v>18.94522095</v>
-      </c>
-      <c r="G9" s="6">
         <v>11.58222303</v>
       </c>
-      <c r="H9" s="11">
+      <c r="G9" s="10">
         <v>76168.984429999997</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="7">
+    <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="C10" s="5">
         <v>0.94199999999999995</v>
       </c>
+      <c r="D10" s="6">
+        <v>80.630099999999999</v>
+      </c>
       <c r="E10" s="6">
-        <v>80.630099999999999</v>
+        <v>17.010139469999999</v>
       </c>
       <c r="F10" s="6">
-        <v>17.010139469999999</v>
-      </c>
-      <c r="G10" s="6">
         <v>14.090966910000001</v>
       </c>
-      <c r="H10" s="11">
+      <c r="G10" s="10">
         <v>54534.216820000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5">
+      <c r="C11" s="5">
         <v>0.94099999999999995</v>
       </c>
+      <c r="D11" s="6">
+        <v>81.687299999999993</v>
+      </c>
       <c r="E11" s="6">
-        <v>81.687299999999993</v>
+        <v>18.693165220000001</v>
       </c>
       <c r="F11" s="6">
-        <v>18.693165220000001</v>
-      </c>
-      <c r="G11" s="6">
         <v>12.581629749999999</v>
       </c>
-      <c r="H11" s="11">
+      <c r="G11" s="10">
         <v>55979.411</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5">
+      <c r="C12" s="5">
         <v>0.94</v>
       </c>
+      <c r="D12" s="6">
+        <v>82.0381</v>
+      </c>
       <c r="E12" s="6">
-        <v>82.0381</v>
+        <v>19.051929470000001</v>
       </c>
       <c r="F12" s="6">
-        <v>19.051929470000001</v>
-      </c>
-      <c r="G12" s="6">
         <v>12.87362003</v>
       </c>
-      <c r="H12" s="11">
+      <c r="G12" s="10">
         <v>49452.166720000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="7">
+    <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5">
+      <c r="C13" s="5">
         <v>0.93899999999999995</v>
       </c>
+      <c r="D13" s="6">
+        <v>82.754499999999993</v>
+      </c>
       <c r="E13" s="6">
-        <v>82.754499999999993</v>
+        <v>16.524320599999999</v>
       </c>
       <c r="F13" s="6">
-        <v>16.524320599999999</v>
-      </c>
-      <c r="G13" s="6">
         <v>11.924880030000001</v>
       </c>
-      <c r="H13" s="11">
+      <c r="G13" s="10">
         <v>90918.644709999993</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5">
+      <c r="C14" s="5">
         <v>0.93700000000000006</v>
       </c>
+      <c r="D14" s="6">
+        <v>81.878699999999995</v>
+      </c>
       <c r="E14" s="6">
-        <v>81.878699999999995</v>
+        <v>19.604219440000001</v>
       </c>
       <c r="F14" s="6">
-        <v>19.604219440000001</v>
-      </c>
-      <c r="G14" s="6">
         <v>12.37567997</v>
       </c>
-      <c r="H14" s="11">
+      <c r="G14" s="10">
         <v>52293.399770000004</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="7">
+    <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5">
+      <c r="C15" s="5">
         <v>0.93700000000000006</v>
       </c>
+      <c r="D15" s="6">
+        <v>82.451300000000003</v>
+      </c>
       <c r="E15" s="6">
-        <v>82.451300000000003</v>
+        <v>20.283889769999998</v>
       </c>
       <c r="F15" s="6">
-        <v>20.283889769999998</v>
-      </c>
-      <c r="G15" s="6">
         <v>12.94468975</v>
       </c>
-      <c r="H15" s="11">
+      <c r="G15" s="10">
         <v>44057.31394</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="7">
+    <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5">
+      <c r="C16" s="5">
         <v>0.93600000000000005</v>
       </c>
+      <c r="D16" s="6">
+        <v>82.656499999999994</v>
+      </c>
       <c r="E16" s="6">
-        <v>82.656499999999994</v>
+        <v>16.396259310000001</v>
       </c>
       <c r="F16" s="6">
-        <v>16.396259310000001</v>
-      </c>
-      <c r="G16" s="6">
         <v>13.83442722</v>
       </c>
-      <c r="H16" s="11">
+      <c r="G16" s="10">
         <v>46807.986190000003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="7">
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="5">
+      <c r="C17" s="5">
         <v>0.93500000000000005</v>
       </c>
+      <c r="D17" s="6">
+        <v>83.257499999999993</v>
+      </c>
       <c r="E17" s="6">
-        <v>83.257499999999993</v>
+        <v>15.181570049999999</v>
       </c>
       <c r="F17" s="6">
-        <v>15.181570049999999</v>
-      </c>
-      <c r="G17" s="6">
         <v>12.538539999999999</v>
       </c>
-      <c r="H17" s="11">
+      <c r="G17" s="10">
         <v>146829.70060000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="7">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="5">
+      <c r="C18" s="5">
         <v>0.93</v>
       </c>
+      <c r="D18" s="6">
+        <v>82.628699999999995</v>
+      </c>
       <c r="E18" s="6">
-        <v>82.628699999999995</v>
+        <v>14.398139949999999</v>
       </c>
       <c r="F18" s="6">
-        <v>14.398139949999999</v>
-      </c>
-      <c r="G18" s="6">
         <v>13.015192170000001</v>
       </c>
-      <c r="H18" s="11">
+      <c r="G18" s="10">
         <v>84649.474669999996</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="7">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="5">
+      <c r="C19" s="5">
         <v>0.92900000000000005</v>
       </c>
+      <c r="D19" s="6">
+        <v>80.742199999999997</v>
+      </c>
       <c r="E19" s="6">
-        <v>80.742199999999997</v>
+        <v>17.309719090000002</v>
       </c>
       <c r="F19" s="6">
-        <v>17.309719090000002</v>
-      </c>
-      <c r="G19" s="6">
         <v>13.4061203</v>
       </c>
-      <c r="H19" s="11">
+      <c r="G19" s="10">
         <v>45224.765639999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="7">
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="5">
+      <c r="C20" s="5">
         <v>0.92500000000000004</v>
       </c>
+      <c r="D20" s="6">
+        <v>84.783900000000003</v>
+      </c>
       <c r="E20" s="6">
-        <v>84.783900000000003</v>
+        <v>15.221625879999999</v>
       </c>
       <c r="F20" s="6">
-        <v>15.221625879999999</v>
-      </c>
-      <c r="G20" s="6">
         <v>13.366100339999999</v>
       </c>
-      <c r="H20" s="11">
+      <c r="G20" s="10">
         <v>42274.291340000003</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="7">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="5">
+      <c r="C21" s="5">
         <v>0.92500000000000004</v>
       </c>
+      <c r="D21" s="6">
+        <v>83.697800000000001</v>
+      </c>
       <c r="E21" s="6">
-        <v>83.697800000000001</v>
+        <v>16.521739960000001</v>
       </c>
       <c r="F21" s="6">
-        <v>16.521739960000001</v>
-      </c>
-      <c r="G21" s="6">
         <v>12.51293027</v>
       </c>
-      <c r="H21" s="11">
+      <c r="G21" s="10">
         <v>44500.93187</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="7">
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="5">
+      <c r="C22" s="5">
         <v>0.92100000000000004</v>
       </c>
+      <c r="D22" s="6">
+        <v>77.1982</v>
+      </c>
       <c r="E22" s="6">
-        <v>77.1982</v>
+        <v>16.280979160000001</v>
       </c>
       <c r="F22" s="6">
-        <v>16.280979160000001</v>
-      </c>
-      <c r="G22" s="6">
         <v>13.683429719999999</v>
       </c>
-      <c r="H22" s="11">
+      <c r="G22" s="10">
         <v>64765.215089999998</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" s="7">
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="5">
+      <c r="C23" s="5">
         <v>0.91900000000000004</v>
       </c>
+      <c r="D23" s="6">
+        <v>82.254999999999995</v>
+      </c>
       <c r="E23" s="6">
-        <v>82.254999999999995</v>
+        <v>16.05088997</v>
       </c>
       <c r="F23" s="6">
-        <v>16.05088997</v>
-      </c>
-      <c r="G23" s="6">
         <v>13.344866400000001</v>
       </c>
-      <c r="H23" s="11">
+      <c r="G23" s="10">
         <v>41523.743190000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" s="7">
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="5">
+      <c r="C24" s="5">
         <v>0.91800000000000004</v>
       </c>
+      <c r="D24" s="6">
+        <v>83.776899999999998</v>
+      </c>
       <c r="E24" s="6">
-        <v>83.776899999999998</v>
+        <v>16.838569639999999</v>
       </c>
       <c r="F24" s="6">
-        <v>16.838569639999999</v>
-      </c>
-      <c r="G24" s="6">
         <v>12.21026039</v>
       </c>
-      <c r="H24" s="11">
+      <c r="G24" s="10">
         <v>38884.456230000003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="7">
+    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="5">
+      <c r="C25" s="5">
         <v>0.91800000000000004</v>
       </c>
+      <c r="D25" s="6">
+        <v>80.690399999999997</v>
+      </c>
       <c r="E25" s="6">
-        <v>80.690399999999997</v>
+        <v>17.654920579999999</v>
       </c>
       <c r="F25" s="6">
-        <v>17.654920579999999</v>
-      </c>
-      <c r="G25" s="6">
         <v>12.803680419999999</v>
       </c>
-      <c r="H25" s="11">
+      <c r="G25" s="10">
         <v>39746.019869999996</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="7">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="5">
+      <c r="C26" s="5">
         <v>0.91600000000000004</v>
       </c>
+      <c r="D26" s="6">
+        <v>81.579700000000003</v>
+      </c>
       <c r="E26" s="6">
-        <v>81.579700000000003</v>
+        <v>16.007959369999998</v>
       </c>
       <c r="F26" s="6">
-        <v>16.007959369999998</v>
-      </c>
-      <c r="G26" s="6">
         <v>12.25669003</v>
       </c>
-      <c r="H26" s="11">
+      <c r="G26" s="10">
         <v>53618.67138</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27" s="7">
+    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="5">
+      <c r="C27" s="5">
         <v>0.91100000000000003</v>
       </c>
+      <c r="D27" s="6">
+        <v>78.710400000000007</v>
+      </c>
       <c r="E27" s="6">
-        <v>78.710400000000007</v>
+        <v>15.717690470000001</v>
       </c>
       <c r="F27" s="6">
-        <v>15.717690470000001</v>
-      </c>
-      <c r="G27" s="6">
         <v>12.69402981</v>
       </c>
-      <c r="H27" s="11">
+      <c r="G27" s="10">
         <v>62573.591809999998</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="7">
+    <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="5">
+      <c r="C28" s="5">
         <v>0.90500000000000003</v>
       </c>
+      <c r="D28" s="6">
+        <v>83.01</v>
+      </c>
       <c r="E28" s="6">
-        <v>83.01</v>
+        <v>17.916900630000001</v>
       </c>
       <c r="F28" s="6">
-        <v>17.916900630000001</v>
-      </c>
-      <c r="G28" s="6">
         <v>10.60540009</v>
       </c>
-      <c r="H28" s="11">
+      <c r="G28" s="10">
         <v>38353.601640000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" s="7">
+    <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="5">
+      <c r="C29" s="5">
         <v>0.90300000000000002</v>
       </c>
+      <c r="D29" s="6">
+        <v>82.498800000000003</v>
+      </c>
       <c r="E29" s="6">
-        <v>82.498800000000003</v>
+        <v>15.81206989</v>
       </c>
       <c r="F29" s="6">
-        <v>15.81206989</v>
-      </c>
-      <c r="G29" s="6">
         <v>11.610059740000001</v>
       </c>
-      <c r="H29" s="11">
+      <c r="G29" s="10">
         <v>45937.052730000003</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="7">
+    <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="5">
+      <c r="C30" s="5">
         <v>0.89600000000000002</v>
       </c>
+      <c r="D30" s="6">
+        <v>81.203299999999999</v>
+      </c>
       <c r="E30" s="6">
-        <v>81.203299999999999</v>
+        <v>15.64826965</v>
       </c>
       <c r="F30" s="6">
-        <v>15.64826965</v>
-      </c>
-      <c r="G30" s="6">
         <v>12.440170289999999</v>
       </c>
-      <c r="H30" s="11">
+      <c r="G30" s="10">
         <v>38188.421520000004</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" s="7">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="5">
+      <c r="C31" s="5">
         <v>0.89500000000000002</v>
       </c>
+      <c r="D31" s="6">
+        <v>82.850200000000001</v>
+      </c>
       <c r="E31" s="6">
-        <v>82.850200000000001</v>
+        <v>16.22678947</v>
       </c>
       <c r="F31" s="6">
-        <v>16.22678947</v>
-      </c>
-      <c r="G31" s="6">
         <v>10.740110400000001</v>
       </c>
-      <c r="H31" s="11">
+      <c r="G31" s="10">
         <v>42839.514410000003</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" s="7">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="5">
+      <c r="C32" s="5">
         <v>0.89</v>
       </c>
+      <c r="D32" s="6">
+        <v>77.143600000000006</v>
+      </c>
       <c r="E32" s="6">
-        <v>77.143600000000006</v>
+        <v>15.92895985</v>
       </c>
       <c r="F32" s="6">
-        <v>15.92895985</v>
-      </c>
-      <c r="G32" s="6">
         <v>13.548430440000001</v>
       </c>
-      <c r="H32" s="11">
+      <c r="G32" s="10">
         <v>38048.263720000003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="7">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="5">
+      <c r="C33" s="5">
         <v>0.88900000000000001</v>
       </c>
+      <c r="D33" s="6">
+        <v>77.728300000000004</v>
+      </c>
       <c r="E33" s="6">
-        <v>77.728300000000004</v>
+        <v>16.219680790000002</v>
       </c>
       <c r="F33" s="6">
-        <v>16.219680790000002</v>
-      </c>
-      <c r="G33" s="6">
         <v>12.86931038</v>
       </c>
-      <c r="H33" s="11">
+      <c r="G33" s="10">
         <v>38745.213860000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="7">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="5">
+      <c r="C34" s="5">
         <v>0.88700000000000001</v>
       </c>
+      <c r="D34" s="6">
+        <v>80.110600000000005</v>
+      </c>
       <c r="E34" s="6">
-        <v>80.110600000000005</v>
+        <v>20.02878952</v>
       </c>
       <c r="F34" s="6">
-        <v>20.02878952</v>
-      </c>
-      <c r="G34" s="6">
         <v>11.408530239999999</v>
       </c>
-      <c r="H34" s="11">
+      <c r="G34" s="10">
         <v>29002.48545</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="7">
+    <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="5">
+      <c r="C35" s="5">
         <v>0.876</v>
       </c>
+      <c r="D35" s="6">
+        <v>76.4572</v>
+      </c>
       <c r="E35" s="6">
-        <v>76.4572</v>
+        <v>16.0271492</v>
       </c>
       <c r="F35" s="6">
-        <v>16.0271492</v>
-      </c>
-      <c r="G35" s="6">
         <v>13.164750099999999</v>
       </c>
-      <c r="H35" s="11">
+      <c r="G35" s="10">
         <v>33033.960809999997</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B36" s="7">
+    <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="5">
+      <c r="C36" s="5">
         <v>0.875</v>
       </c>
+      <c r="D36" s="6">
+        <v>78.760499999999993</v>
+      </c>
       <c r="E36" s="6">
-        <v>78.760499999999993</v>
+        <v>16.297559740000001</v>
       </c>
       <c r="F36" s="6">
-        <v>16.297559740000001</v>
-      </c>
-      <c r="G36" s="6">
         <v>11.04658985</v>
       </c>
-      <c r="H36" s="11">
+      <c r="G36" s="10">
         <v>39497.247880000003</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" s="7">
+    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="5">
+      <c r="C37" s="5">
         <v>0.875</v>
       </c>
+      <c r="D37" s="6">
+        <v>73.720100000000002</v>
+      </c>
       <c r="E37" s="6">
-        <v>73.720100000000002</v>
+        <v>16.28506088</v>
       </c>
       <c r="F37" s="6">
-        <v>16.28506088</v>
-      </c>
-      <c r="G37" s="6">
         <v>13.498100279999999</v>
       </c>
-      <c r="H37" s="11">
+      <c r="G37" s="10">
         <v>37931.303590000003</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38" s="7">
+    <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="5">
+      <c r="C38" s="5">
         <v>0.875</v>
       </c>
+      <c r="D38" s="6">
+        <v>76.936000000000007</v>
+      </c>
       <c r="E38" s="6">
-        <v>76.936000000000007</v>
+        <v>16.13549042</v>
       </c>
       <c r="F38" s="6">
-        <v>16.13549042</v>
-      </c>
-      <c r="G38" s="6">
         <v>11.310529710000001</v>
       </c>
-      <c r="H38" s="11">
+      <c r="G38" s="10">
         <v>46111.551350000002</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39" s="7">
+    <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="5">
+      <c r="C39" s="5">
         <v>0.86599999999999999</v>
       </c>
+      <c r="D39" s="6">
+        <v>81.044300000000007</v>
+      </c>
       <c r="E39" s="6">
-        <v>81.044300000000007</v>
+        <v>16.871229169999999</v>
       </c>
       <c r="F39" s="6">
-        <v>16.871229169999999</v>
-      </c>
-      <c r="G39" s="6">
         <v>9.5759401319999995</v>
       </c>
-      <c r="H39" s="11">
+      <c r="G39" s="10">
         <v>33154.533430000003</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B40" s="7">
+    <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="5">
+      <c r="C40" s="5">
         <v>0.86299999999999999</v>
       </c>
+      <c r="D40" s="6">
+        <v>73.578599999999994</v>
+      </c>
       <c r="E40" s="6">
-        <v>73.578599999999994</v>
+        <v>16.202529909999999</v>
       </c>
       <c r="F40" s="6">
-        <v>16.202529909999999</v>
-      </c>
-      <c r="G40" s="6">
         <v>13.252719880000001</v>
       </c>
-      <c r="H40" s="11">
+      <c r="G40" s="10">
         <v>32803.234230000002</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B41" s="7">
+    <row r="41" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="5">
+      <c r="C41" s="5">
         <v>0.85799999999999998</v>
       </c>
+      <c r="D41" s="6">
+        <v>80.368399999999994</v>
+      </c>
       <c r="E41" s="6">
-        <v>80.368399999999994</v>
+        <v>13.300238739999999</v>
       </c>
       <c r="F41" s="6">
-        <v>13.300238739999999</v>
-      </c>
-      <c r="G41" s="6">
         <v>10.55511952</v>
       </c>
-      <c r="H41" s="11">
+      <c r="G41" s="10">
         <v>51166.626609999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B42" s="7">
+    <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="5">
+      <c r="C42" s="5">
         <v>0.85799999999999998</v>
       </c>
+      <c r="D42" s="6">
+        <v>77.580399999999997</v>
+      </c>
       <c r="E42" s="6">
-        <v>77.580399999999997</v>
+        <v>15.112099649999999</v>
       </c>
       <c r="F42" s="6">
-        <v>15.112099649999999</v>
-      </c>
-      <c r="G42" s="6">
         <v>12.19108434</v>
       </c>
-      <c r="H42" s="11">
+      <c r="G42" s="10">
         <v>30132.288140000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B43" s="7">
+    <row r="43" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="5">
+      <c r="C43" s="5">
         <v>0.85499999999999998</v>
       </c>
+      <c r="D43" s="6">
+        <v>78.9435</v>
+      </c>
       <c r="E43" s="6">
-        <v>78.9435</v>
+        <v>16.731300350000001</v>
       </c>
       <c r="F43" s="6">
-        <v>16.731300350000001</v>
-      </c>
-      <c r="G43" s="6">
         <v>10.934966299999999</v>
       </c>
-      <c r="H43" s="11">
+      <c r="G43" s="10">
         <v>24563.244859999999</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B44" s="7">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="5">
+      <c r="C44" s="5">
         <v>0.85499999999999998</v>
       </c>
+      <c r="D44" s="6">
+        <v>79.271600000000007</v>
+      </c>
       <c r="E44" s="6">
-        <v>79.271600000000007</v>
+        <v>12.63722038</v>
       </c>
       <c r="F44" s="6">
-        <v>12.63722038</v>
-      </c>
-      <c r="G44" s="6">
         <v>9.9960114499999992</v>
       </c>
-      <c r="H44" s="11">
+      <c r="G44" s="10">
         <v>87134.134690000006</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" s="7">
+    <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="5">
+      <c r="C45" s="5">
         <v>0.85299999999999998</v>
       </c>
+      <c r="D45" s="6">
+        <v>80.878600000000006</v>
+      </c>
       <c r="E45" s="6">
-        <v>80.878600000000006</v>
+        <v>12.26613998</v>
       </c>
       <c r="F45" s="6">
-        <v>12.26613998</v>
-      </c>
-      <c r="G45" s="6">
         <v>10.80146027</v>
       </c>
-      <c r="H45" s="11">
+      <c r="G45" s="10">
         <v>52653.825340000003</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B46" s="7">
+    <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="5">
+      <c r="C46" s="5">
         <v>0.84799999999999998</v>
       </c>
+      <c r="D46" s="6">
+        <v>74.9101</v>
+      </c>
       <c r="E46" s="6">
-        <v>74.9101</v>
+        <v>14.51303959</v>
       </c>
       <c r="F46" s="6">
-        <v>14.51303959</v>
-      </c>
-      <c r="G46" s="6">
         <v>12.91141987</v>
       </c>
-      <c r="H46" s="11">
+      <c r="G46" s="10">
         <v>30690.485519999998</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="7">
+    <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="5">
+      <c r="C47" s="5">
         <v>0.84599999999999997</v>
       </c>
+      <c r="D47" s="6">
+        <v>74.530100000000004</v>
+      </c>
       <c r="E47" s="6">
-        <v>74.530100000000004</v>
+        <v>15.0336281</v>
       </c>
       <c r="F47" s="6">
-        <v>15.0336281</v>
-      </c>
-      <c r="G47" s="6">
         <v>12.24958992</v>
       </c>
-      <c r="H47" s="11">
+      <c r="G47" s="10">
         <v>32789.010629999997</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" s="7">
+    <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="5">
+      <c r="C48" s="5">
         <v>0.84199999999999997</v>
       </c>
+      <c r="D48" s="6">
+        <v>75.389899999999997</v>
+      </c>
       <c r="E48" s="6">
-        <v>75.389899999999997</v>
+        <v>17.874870300000001</v>
       </c>
       <c r="F48" s="6">
-        <v>17.874870300000001</v>
-      </c>
-      <c r="G48" s="6">
         <v>11.147269270000001</v>
       </c>
-      <c r="H48" s="11">
+      <c r="G48" s="10">
         <v>20925.26814</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B49" s="7">
+    <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="5">
+      <c r="C49" s="5">
         <v>0.83799999999999997</v>
       </c>
+      <c r="D49" s="6">
+        <v>76.032399999999996</v>
+      </c>
       <c r="E49" s="6">
-        <v>76.032399999999996</v>
+        <v>18.3382206</v>
       </c>
       <c r="F49" s="6">
-        <v>18.3382206</v>
-      </c>
-      <c r="G49" s="6">
         <v>8.6331396100000006</v>
       </c>
-      <c r="H49" s="11">
+      <c r="G49" s="10">
         <v>31032.801060000002</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="7">
+    <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="5">
+      <c r="C50" s="5">
         <v>0.83199999999999996</v>
       </c>
+      <c r="D50" s="6">
+        <v>76.342600000000004</v>
+      </c>
       <c r="E50" s="6">
-        <v>76.342600000000004</v>
+        <v>15.08160973</v>
       </c>
       <c r="F50" s="6">
-        <v>15.08160973</v>
-      </c>
-      <c r="G50" s="6">
         <v>12.176483060000001</v>
       </c>
-      <c r="H50" s="11">
+      <c r="G50" s="10">
         <v>20838.801289999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B51" s="7">
+    <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="5">
+      <c r="C51" s="5">
         <v>0.83099999999999996</v>
       </c>
+      <c r="D51" s="6">
+        <v>78.672899999999998</v>
+      </c>
       <c r="E51" s="6">
-        <v>78.672899999999998</v>
+        <v>15.324433320000001</v>
       </c>
       <c r="F51" s="6">
-        <v>15.324433320000001</v>
-      </c>
-      <c r="G51" s="6">
         <v>7.3280226180000003</v>
       </c>
-      <c r="H51" s="11">
+      <c r="G51" s="10">
         <v>52919.76137</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="7">
+    <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="5">
+      <c r="C52" s="5">
         <v>0.82899999999999996</v>
       </c>
+      <c r="D52" s="6">
+        <v>74.642399999999995</v>
+      </c>
       <c r="E52" s="6">
-        <v>74.642399999999995</v>
+        <v>13.951780319999999</v>
       </c>
       <c r="F52" s="6">
-        <v>13.951780319999999</v>
-      </c>
-      <c r="G52" s="6">
         <v>9.18</v>
       </c>
-      <c r="H52" s="11">
+      <c r="G52" s="10">
         <v>64489.539539999998</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" s="7">
+    <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="5">
+      <c r="C53" s="5">
         <v>0.82199999999999995</v>
       </c>
+      <c r="D53" s="6">
+        <v>69.418999999999997</v>
+      </c>
       <c r="E53" s="6">
-        <v>69.418999999999997</v>
+        <v>15.76636982</v>
       </c>
       <c r="F53" s="6">
-        <v>15.76636982</v>
-      </c>
-      <c r="G53" s="6">
         <v>12.774288049999999</v>
       </c>
-      <c r="H53" s="11">
+      <c r="G53" s="10">
         <v>27166.30891</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B54" s="7">
+    <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="5">
+      <c r="C54" s="5">
         <v>0.82099999999999995</v>
       </c>
+      <c r="D54" s="6">
+        <v>74.184700000000007</v>
+      </c>
       <c r="E54" s="6">
-        <v>74.184700000000007</v>
+        <v>14.22990036</v>
       </c>
       <c r="F54" s="6">
-        <v>14.22990036</v>
-      </c>
-      <c r="G54" s="6">
         <v>11.275119780000001</v>
       </c>
-      <c r="H54" s="11">
+      <c r="G54" s="10">
         <v>30027.291310000001</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A55" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="7">
+    <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="5">
+      <c r="C55" s="5">
         <v>0.81599999999999995</v>
       </c>
+      <c r="D55" s="6">
+        <v>72.540599999999998</v>
+      </c>
       <c r="E55" s="6">
-        <v>72.540599999999998</v>
+        <v>14.573490140000001</v>
       </c>
       <c r="F55" s="6">
-        <v>14.573490140000001</v>
-      </c>
-      <c r="G55" s="6">
         <v>11.65404034</v>
       </c>
-      <c r="H55" s="11">
+      <c r="G55" s="10">
         <v>27054.325049999999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="7">
+    <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="5">
+      <c r="C56" s="5">
         <v>0.81200000000000006</v>
       </c>
+      <c r="D56" s="6">
+        <v>71.598299999999995</v>
+      </c>
       <c r="E56" s="6">
-        <v>71.598299999999995</v>
+        <v>12.89945</v>
       </c>
       <c r="F56" s="6">
-        <v>12.89945</v>
-      </c>
-      <c r="G56" s="6">
         <v>12.64192386</v>
       </c>
-      <c r="H56" s="11">
+      <c r="G56" s="10">
         <v>30486.184290000001</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="7">
+    <row r="57" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="5">
+      <c r="C57" s="5">
         <v>0.81100000000000005</v>
       </c>
+      <c r="D57" s="6">
+        <v>69.362200000000001</v>
+      </c>
       <c r="E57" s="6">
-        <v>69.362200000000001</v>
+        <v>15.76500034</v>
       </c>
       <c r="F57" s="6">
-        <v>15.76500034</v>
-      </c>
-      <c r="G57" s="6">
         <v>12.34756189</v>
       </c>
-      <c r="H57" s="11">
+      <c r="G57" s="10">
         <v>23942.818370000001</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A58" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" s="7">
+    <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="5">
+      <c r="C58" s="5">
         <v>0.81</v>
       </c>
+      <c r="D58" s="6">
+        <v>72.9709</v>
+      </c>
       <c r="E58" s="6">
-        <v>72.9709</v>
+        <v>14.535452920000001</v>
       </c>
       <c r="F58" s="6">
-        <v>14.535452920000001</v>
-      </c>
-      <c r="G58" s="6">
         <v>11.610624189999999</v>
       </c>
-      <c r="H58" s="11">
+      <c r="G58" s="10">
         <v>23392.020840000001</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A59" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B59" s="7">
+    <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="5">
+      <c r="C59" s="5">
         <v>0.80900000000000005</v>
       </c>
+      <c r="D59" s="6">
+        <v>77.023200000000003</v>
+      </c>
       <c r="E59" s="6">
-        <v>77.023200000000003</v>
+        <v>16.545770650000001</v>
       </c>
       <c r="F59" s="6">
-        <v>16.545770650000001</v>
-      </c>
-      <c r="G59" s="6">
         <v>8.8040599820000001</v>
       </c>
-      <c r="H59" s="11">
+      <c r="G59" s="10">
         <v>19974.273580000001</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B60" s="7">
+    <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="5">
+      <c r="C60" s="5">
         <v>0.80900000000000005</v>
       </c>
+      <c r="D60" s="6">
+        <v>75.435599999999994</v>
+      </c>
       <c r="E60" s="6">
-        <v>75.435599999999994</v>
+        <v>16.832599640000002</v>
       </c>
       <c r="F60" s="6">
-        <v>16.832599640000002</v>
-      </c>
-      <c r="G60" s="6">
         <v>8.9825496670000007</v>
       </c>
-      <c r="H60" s="11">
+      <c r="G60" s="10">
         <v>21268.881219999999</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B61" s="7">
+    <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="5">
+      <c r="C61" s="5">
         <v>0.80800000000000005</v>
       </c>
+      <c r="D61" s="6">
+        <v>72.438000000000002</v>
+      </c>
       <c r="E61" s="6">
-        <v>72.438000000000002</v>
+        <v>15.16996956</v>
       </c>
       <c r="F61" s="6">
-        <v>15.16996956</v>
-      </c>
-      <c r="G61" s="6">
         <v>12.143580439999999</v>
       </c>
-      <c r="H61" s="11">
+      <c r="G61" s="10">
         <v>18848.96704</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B62" s="7">
+    <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="5">
+      <c r="C62" s="5">
         <v>0.80500000000000005</v>
       </c>
+      <c r="D62" s="6">
+        <v>76.223299999999995</v>
+      </c>
       <c r="E62" s="6">
-        <v>76.223299999999995</v>
+        <v>13.05787868</v>
       </c>
       <c r="F62" s="6">
-        <v>13.05787868</v>
-      </c>
-      <c r="G62" s="6">
         <v>10.540590290000001</v>
       </c>
-      <c r="H62" s="11">
+      <c r="G62" s="10">
         <v>26956.837070000001</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B63" s="7">
+    <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="5">
+      <c r="C63" s="5">
         <v>0.80300000000000005</v>
       </c>
+      <c r="D63" s="6">
+        <v>74.883899999999997</v>
+      </c>
       <c r="E63" s="6">
-        <v>74.883899999999997</v>
+        <v>13.34304047</v>
       </c>
       <c r="F63" s="6">
-        <v>13.34304047</v>
-      </c>
-      <c r="G63" s="6">
         <v>10.645059590000001</v>
       </c>
-      <c r="H63" s="11">
+      <c r="G63" s="10">
         <v>26657.94355</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B64" s="7">
+    <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="5">
+      <c r="C64" s="5">
         <v>0.80200000000000005</v>
       </c>
+      <c r="D64" s="6">
+        <v>71.694000000000003</v>
+      </c>
       <c r="E64" s="6">
-        <v>71.694000000000003</v>
+        <v>15.568519589999999</v>
       </c>
       <c r="F64" s="6">
-        <v>15.568519589999999</v>
-      </c>
-      <c r="G64" s="6">
         <v>12.82221985</v>
       </c>
-      <c r="H64" s="11">
+      <c r="G64" s="10">
         <v>14664.168250000001</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B65" s="7">
+    <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A65" s="7">
         <v>63</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="5">
+      <c r="C65" s="5">
         <v>0.80200000000000005</v>
       </c>
+      <c r="D65" s="6">
+        <v>73.555199999999999</v>
+      </c>
       <c r="E65" s="6">
-        <v>73.555199999999999</v>
+        <v>15.17352977</v>
       </c>
       <c r="F65" s="6">
-        <v>15.17352977</v>
-      </c>
-      <c r="G65" s="6">
         <v>10.42791048</v>
       </c>
-      <c r="H65" s="11">
+      <c r="G65" s="10">
         <v>22025.346310000001</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B66" s="7">
+    <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="7">
         <v>63</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="5">
+      <c r="C66" s="5">
         <v>0.80200000000000005</v>
       </c>
+      <c r="D66" s="6">
+        <v>74.192300000000003</v>
+      </c>
       <c r="E66" s="6">
-        <v>74.192300000000003</v>
+        <v>14.400090219999999</v>
       </c>
       <c r="F66" s="6">
-        <v>14.400090219999999</v>
-      </c>
-      <c r="G66" s="6">
         <v>11.36987019</v>
       </c>
-      <c r="H66" s="11">
+      <c r="G66" s="10">
         <v>19123.027470000001</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B67" s="7">
+    <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="5">
+      <c r="C67" s="5">
         <v>0.8</v>
       </c>
+      <c r="D67" s="6">
+        <v>78.715400000000002</v>
+      </c>
       <c r="E67" s="6">
-        <v>78.715400000000002</v>
+        <v>15.882219129999999</v>
       </c>
       <c r="F67" s="6">
-        <v>15.882219129999999</v>
-      </c>
-      <c r="G67" s="6">
         <v>8.6971197129999993</v>
       </c>
-      <c r="H67" s="11">
+      <c r="G67" s="10">
         <v>17030.15352</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B68" s="7">
+    <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="5">
+      <c r="C68" s="5">
         <v>0.79600000000000004</v>
       </c>
+      <c r="D68" s="6">
+        <v>76.462599999999995</v>
+      </c>
       <c r="E68" s="6">
-        <v>76.462599999999995</v>
+        <v>14.44799995</v>
       </c>
       <c r="F68" s="6">
-        <v>14.44799995</v>
-      </c>
-      <c r="G68" s="6">
         <v>11.28645502</v>
       </c>
-      <c r="H68" s="11">
+      <c r="G68" s="10">
         <v>14131.11039</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A69" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B69" s="7">
+    <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D69" s="5">
+      <c r="C69" s="5">
         <v>0.79500000000000004</v>
       </c>
+      <c r="D69" s="6">
+        <v>71.798000000000002</v>
+      </c>
       <c r="E69" s="6">
-        <v>71.798000000000002</v>
+        <v>13.897290229999999</v>
       </c>
       <c r="F69" s="6">
-        <v>13.897290229999999</v>
-      </c>
-      <c r="G69" s="6">
         <v>11.413180349999999</v>
       </c>
-      <c r="H69" s="11">
+      <c r="G69" s="10">
         <v>23078.95595</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A70" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" s="7">
+    <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A70" s="7">
         <v>68</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="5">
+      <c r="C70" s="5">
         <v>0.79500000000000004</v>
       </c>
+      <c r="D70" s="6">
+        <v>74.936199999999999</v>
+      </c>
       <c r="E70" s="6">
-        <v>74.936199999999999</v>
+        <v>18.662020349999999</v>
       </c>
       <c r="F70" s="6">
-        <v>18.662020349999999</v>
-      </c>
-      <c r="G70" s="6">
         <v>9.0321040000000004</v>
       </c>
-      <c r="H70" s="11">
+      <c r="G70" s="10">
         <v>13483.5774</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B71" s="7">
+    <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="5">
+      <c r="C71" s="5">
         <v>0.79</v>
       </c>
+      <c r="D71" s="6">
+        <v>77.571399999999997</v>
+      </c>
       <c r="E71" s="6">
-        <v>77.571399999999997</v>
+        <v>15.71338458</v>
       </c>
       <c r="F71" s="6">
-        <v>15.71338458</v>
-      </c>
-      <c r="G71" s="6">
         <v>9.852700596</v>
       </c>
-      <c r="H71" s="11">
+      <c r="G71" s="10">
         <v>12306.341</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B72" s="7">
+    <row r="72" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="5">
+      <c r="C72" s="5">
         <v>0.78800000000000003</v>
       </c>
+      <c r="D72" s="6">
+        <v>78.496799999999993</v>
+      </c>
       <c r="E72" s="6">
-        <v>78.496799999999993</v>
+        <v>14.18462641</v>
       </c>
       <c r="F72" s="6">
-        <v>14.18462641</v>
-      </c>
-      <c r="G72" s="6">
         <v>9.2937407459999992</v>
       </c>
-      <c r="H72" s="11">
+      <c r="G72" s="10">
         <v>16792.365949999999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B73" s="7">
+    <row r="73" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="5">
+      <c r="C73" s="5">
         <v>0.78500000000000003</v>
       </c>
+      <c r="D73" s="6">
+        <v>71.294499999999999</v>
+      </c>
       <c r="E73" s="6">
-        <v>71.294499999999999</v>
+        <v>13.94161034</v>
       </c>
       <c r="F73" s="6">
-        <v>13.94161034</v>
-      </c>
-      <c r="G73" s="6">
         <v>10.28312</v>
       </c>
-      <c r="H73" s="11">
+      <c r="G73" s="10">
         <v>25830.617750000001</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" s="7">
+    <row r="74" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="5">
+      <c r="C74" s="5">
         <v>0.78200000000000003</v>
       </c>
+      <c r="D74" s="6">
+        <v>76.399100000000004</v>
+      </c>
       <c r="E74" s="6">
-        <v>76.399100000000004</v>
+        <v>14.13990486</v>
       </c>
       <c r="F74" s="6">
-        <v>14.13990486</v>
-      </c>
-      <c r="G74" s="6">
         <v>10.82730007</v>
       </c>
-      <c r="H74" s="11">
+      <c r="G74" s="10">
         <v>12578.22055</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" s="7">
+    <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="5">
+      <c r="C75" s="5">
         <v>0.78</v>
       </c>
+      <c r="D75" s="6">
+        <v>75.300299999999993</v>
+      </c>
       <c r="E75" s="6">
-        <v>75.300299999999993</v>
+        <v>13.8</v>
       </c>
       <c r="F75" s="6">
-        <v>13.8</v>
-      </c>
-      <c r="G75" s="6">
         <v>10.536319730000001</v>
       </c>
-      <c r="H75" s="11">
+      <c r="G75" s="10">
         <v>15241.914650000001</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B76" s="7">
+    <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="5">
+      <c r="C76" s="5">
         <v>0.77700000000000002</v>
       </c>
+      <c r="D76" s="6">
+        <v>71.682199999999995</v>
+      </c>
       <c r="E76" s="6">
-        <v>71.682199999999995</v>
+        <v>15.42769157</v>
       </c>
       <c r="F76" s="6">
-        <v>15.42769157</v>
-      </c>
-      <c r="G76" s="6">
         <v>8.6627449999999993</v>
       </c>
-      <c r="H76" s="11">
+      <c r="G76" s="10">
         <v>23358.332119999999</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" s="7">
+    <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="5">
+      <c r="C77" s="5">
         <v>0.77400000000000002</v>
       </c>
+      <c r="D77" s="6">
+        <v>73.874899999999997</v>
+      </c>
       <c r="E77" s="6">
-        <v>73.874899999999997</v>
+        <v>14.615249629999999</v>
       </c>
       <c r="F77" s="6">
-        <v>14.615249629999999</v>
-      </c>
-      <c r="G77" s="6">
         <v>10.63645314</v>
       </c>
-      <c r="H77" s="11">
+      <c r="G77" s="10">
         <v>13000.7117</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B78" s="7">
+    <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D78" s="5">
+      <c r="C78" s="5">
         <v>0.77300000000000002</v>
       </c>
+      <c r="D78" s="6">
+        <v>71.623999999999995</v>
+      </c>
       <c r="E78" s="6">
-        <v>71.623999999999995</v>
+        <v>14.956568539999999</v>
       </c>
       <c r="F78" s="6">
-        <v>14.956568539999999</v>
-      </c>
-      <c r="G78" s="6">
         <v>11.13142043</v>
       </c>
-      <c r="H78" s="11">
+      <c r="G78" s="10">
         <v>13255.509770000001</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B79" s="7">
+    <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D79" s="5">
+      <c r="C79" s="5">
         <v>0.77</v>
       </c>
+      <c r="D79" s="6">
+        <v>73.841499999999996</v>
+      </c>
       <c r="E79" s="6">
-        <v>73.841499999999996</v>
+        <v>13.62443234</v>
       </c>
       <c r="F79" s="6">
-        <v>13.62443234</v>
-      </c>
-      <c r="G79" s="6">
         <v>10.22815037</v>
       </c>
-      <c r="H79" s="11">
+      <c r="G79" s="10">
         <v>15917.752829999999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="7">
+    <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D80" s="5">
+      <c r="C80" s="5">
         <v>0.76800000000000002</v>
       </c>
+      <c r="D80" s="6">
+        <v>78.210700000000003</v>
+      </c>
       <c r="E80" s="6">
-        <v>78.210700000000003</v>
+        <v>14.2361149</v>
       </c>
       <c r="F80" s="6">
-        <v>14.2361149</v>
-      </c>
-      <c r="G80" s="6">
         <v>7.6001184459999998</v>
       </c>
-      <c r="H80" s="11">
+      <c r="G80" s="10">
         <v>17504.399689999998</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B81" s="7">
+    <row r="81" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D81" s="5">
+      <c r="C81" s="5">
         <v>0.76700000000000002</v>
       </c>
+      <c r="D81" s="6">
+        <v>72.614599999999996</v>
+      </c>
       <c r="E81" s="6">
-        <v>72.614599999999996</v>
+        <v>14.466558020000001</v>
       </c>
       <c r="F81" s="6">
-        <v>14.466558020000001</v>
-      </c>
-      <c r="G81" s="6">
         <v>9.3068641070000009</v>
       </c>
-      <c r="H81" s="11">
+      <c r="G81" s="10">
         <v>17989.60037</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B82" s="7">
+    <row r="82" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="7">
         <v>80</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="5">
+      <c r="C82" s="5">
         <v>0.76700000000000002</v>
       </c>
+      <c r="D82" s="6">
+        <v>68.8459</v>
+      </c>
       <c r="E82" s="6">
-        <v>68.8459</v>
+        <v>14.43299961</v>
       </c>
       <c r="F82" s="6">
-        <v>14.43299961</v>
-      </c>
-      <c r="G82" s="6">
         <v>11.82159042</v>
       </c>
-      <c r="H82" s="11">
+      <c r="G82" s="10">
         <v>14875.331889999999</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B83" s="7">
+    <row r="83" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
         <v>80</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="5">
+      <c r="C83" s="5">
         <v>0.76700000000000002</v>
       </c>
+      <c r="D83" s="6">
+        <v>66.020399999999995</v>
+      </c>
       <c r="E83" s="6">
-        <v>66.020399999999995</v>
+        <v>15.784319999999999</v>
       </c>
       <c r="F83" s="6">
-        <v>15.784319999999999</v>
-      </c>
-      <c r="G83" s="6">
         <v>12.491429999999999</v>
       </c>
-      <c r="H83" s="11">
+      <c r="G83" s="10">
         <v>13818.678690000001</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A84" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B84" s="7">
+    <row r="84" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="5">
+      <c r="C84" s="5">
         <v>0.76400000000000001</v>
       </c>
+      <c r="D84" s="6">
+        <v>73.682900000000004</v>
+      </c>
       <c r="E84" s="6">
-        <v>73.682900000000004</v>
+        <v>14.44305992</v>
       </c>
       <c r="F84" s="6">
-        <v>14.44305992</v>
-      </c>
-      <c r="G84" s="6">
         <v>12.497734380000001</v>
       </c>
-      <c r="H84" s="11">
+      <c r="G84" s="10">
         <v>7878.8474820000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B85" s="7">
+    <row r="85" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D85" s="5">
+      <c r="C85" s="5">
         <v>0.76200000000000001</v>
       </c>
+      <c r="D85" s="6">
+        <v>72.376900000000006</v>
+      </c>
       <c r="E85" s="6">
-        <v>72.376900000000006</v>
+        <v>15.387733539999999</v>
       </c>
       <c r="F85" s="6">
-        <v>15.387733539999999</v>
-      </c>
-      <c r="G85" s="6">
         <v>9.8855188629999997</v>
       </c>
-      <c r="H85" s="11">
+      <c r="G85" s="10">
         <v>12245.89366</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B86" s="7">
+    <row r="86" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="5">
+      <c r="C86" s="5">
         <v>0.75900000000000001</v>
       </c>
+      <c r="D86" s="6">
+        <v>72.043099999999995</v>
+      </c>
       <c r="E86" s="6">
-        <v>72.043099999999995</v>
+        <v>13.11676025</v>
       </c>
       <c r="F86" s="6">
-        <v>13.11676025</v>
-      </c>
-      <c r="G86" s="6">
         <v>11.33030033</v>
       </c>
-      <c r="H86" s="11">
+      <c r="G86" s="10">
         <v>13157.993899999999</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A87" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="7">
+    <row r="87" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="5">
+      <c r="C87" s="5">
         <v>0.75800000000000001</v>
       </c>
+      <c r="D87" s="6">
+        <v>70.212699999999998</v>
+      </c>
       <c r="E87" s="6">
-        <v>70.212699999999998</v>
+        <v>14.86443996</v>
       </c>
       <c r="F87" s="6">
-        <v>14.86443996</v>
-      </c>
-      <c r="G87" s="6">
         <v>9.2210502620000003</v>
       </c>
-      <c r="H87" s="11">
+      <c r="G87" s="10">
         <v>17896.294979999999</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B88" s="7">
+    <row r="88" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D88" s="5">
+      <c r="C88" s="5">
         <v>0.754</v>
       </c>
+      <c r="D88" s="6">
+        <v>72.750399999999999</v>
+      </c>
       <c r="E88" s="6">
-        <v>72.750399999999999</v>
+        <v>15.599060059999999</v>
       </c>
       <c r="F88" s="6">
-        <v>15.599060059999999</v>
-      </c>
-      <c r="G88" s="6">
         <v>8.128813955</v>
       </c>
-      <c r="H88" s="11">
+      <c r="G88" s="10">
         <v>14369.88848</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A89" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B89" s="7">
+    <row r="89" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="5">
+      <c r="C89" s="5">
         <v>0.752</v>
       </c>
+      <c r="D89" s="6">
+        <v>72.829599999999999</v>
+      </c>
       <c r="E89" s="6">
-        <v>72.829599999999999</v>
+        <v>14.44274998</v>
       </c>
       <c r="F89" s="6">
-        <v>14.44274998</v>
-      </c>
-      <c r="G89" s="6">
         <v>8.8628597259999999</v>
       </c>
-      <c r="H89" s="11">
+      <c r="G89" s="10">
         <v>14384.356659999999</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B90" s="7">
+    <row r="90" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D90" s="5">
+      <c r="C90" s="5">
         <v>0.751</v>
       </c>
+      <c r="D90" s="6">
+        <v>69.629099999999994</v>
+      </c>
       <c r="E90" s="6">
-        <v>69.629099999999994</v>
+        <v>14.67220567</v>
       </c>
       <c r="F90" s="6">
-        <v>14.67220567</v>
-      </c>
-      <c r="G90" s="6">
         <v>10.833430290000001</v>
       </c>
-      <c r="H90" s="11">
+      <c r="G90" s="10">
         <v>11961.08792</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B91" s="7">
+    <row r="91" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D91" s="5">
+      <c r="C91" s="5">
         <v>0.747</v>
       </c>
+      <c r="D91" s="6">
+        <v>79.918199999999999</v>
+      </c>
       <c r="E91" s="6">
-        <v>79.918199999999999</v>
+        <v>12.635609629999999</v>
       </c>
       <c r="F91" s="6">
-        <v>12.635609629999999</v>
-      </c>
-      <c r="G91" s="6">
         <v>7.3220000000000001</v>
       </c>
-      <c r="H91" s="11">
+      <c r="G91" s="10">
         <v>15448.12788</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B92" s="7">
+    <row r="92" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D92" s="5">
+      <c r="C92" s="5">
         <v>0.745</v>
       </c>
+      <c r="D92" s="6">
+        <v>76.3767</v>
+      </c>
       <c r="E92" s="6">
-        <v>76.3767</v>
+        <v>14.62689602</v>
       </c>
       <c r="F92" s="6">
-        <v>14.62689602</v>
-      </c>
-      <c r="G92" s="6">
         <v>8.0692843970000006</v>
       </c>
-      <c r="H92" s="11">
+      <c r="G92" s="10">
         <v>10800.22546</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A93" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B93" s="7">
+    <row r="93" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
         <v>91</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D93" s="5">
+      <c r="C93" s="5">
         <v>0.745</v>
       </c>
+      <c r="D93" s="6">
+        <v>69.365799999999993</v>
+      </c>
       <c r="E93" s="6">
-        <v>69.365799999999993</v>
+        <v>13.496890069999999</v>
       </c>
       <c r="F93" s="6">
-        <v>13.496890069999999</v>
-      </c>
-      <c r="G93" s="6">
         <v>10.5429697</v>
       </c>
-      <c r="H93" s="11">
+      <c r="G93" s="10">
         <v>14256.744559999999</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A94" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B94" s="7">
+    <row r="94" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A94" s="7">
         <v>91</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="5">
+      <c r="C94" s="5">
         <v>0.745</v>
       </c>
+      <c r="D94" s="6">
+        <v>70.985699999999994</v>
+      </c>
       <c r="E94" s="6">
-        <v>70.985699999999994</v>
+        <v>16.04857063</v>
       </c>
       <c r="F94" s="6">
-        <v>16.04857063</v>
-      </c>
-      <c r="G94" s="6">
         <v>11.392594000000001</v>
       </c>
-      <c r="H94" s="11">
+      <c r="G94" s="10">
         <v>6822.03125</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B95" s="7">
+    <row r="95" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
         <v>91</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D95" s="5">
+      <c r="C95" s="5">
         <v>0.745</v>
       </c>
+      <c r="D95" s="6">
+        <v>69.264399999999995</v>
+      </c>
       <c r="E95" s="6">
-        <v>69.264399999999995</v>
+        <v>13.21039963</v>
       </c>
       <c r="F95" s="6">
-        <v>13.21039963</v>
-      </c>
-      <c r="G95" s="6">
         <v>11.26139</v>
       </c>
-      <c r="H95" s="11">
+      <c r="G95" s="10">
         <v>13020.7155</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B96" s="7">
+    <row r="96" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="5">
+      <c r="C96" s="5">
         <v>0.74</v>
       </c>
+      <c r="D96" s="6">
+        <v>73.67</v>
+      </c>
       <c r="E96" s="6">
-        <v>73.67</v>
+        <v>14.62423038</v>
       </c>
       <c r="F96" s="6">
-        <v>14.62423038</v>
-      </c>
-      <c r="G96" s="6">
         <v>8.8171195979999997</v>
       </c>
-      <c r="H96" s="11">
+      <c r="G96" s="10">
         <v>10311.632729999999</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B97" s="7">
+    <row r="97" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D97" s="5">
+      <c r="C97" s="5">
         <v>0.73899999999999999</v>
       </c>
+      <c r="D97" s="6">
+        <v>70.975399999999993</v>
+      </c>
       <c r="E97" s="6">
-        <v>70.975399999999993</v>
+        <v>14.980349540000001</v>
       </c>
       <c r="F97" s="6">
-        <v>14.980349540000001</v>
-      </c>
-      <c r="G97" s="6">
         <v>9.4237003329999993</v>
       </c>
-      <c r="H97" s="11">
+      <c r="G97" s="10">
         <v>10588.22532</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B98" s="7">
+    <row r="98" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D98" s="5">
+      <c r="C98" s="5">
         <v>0.73099999999999998</v>
       </c>
+      <c r="D98" s="6">
+        <v>70.220699999999994</v>
+      </c>
       <c r="E98" s="6">
-        <v>70.220699999999994</v>
+        <v>13.78649972</v>
       </c>
       <c r="F98" s="6">
-        <v>13.78649972</v>
-      </c>
-      <c r="G98" s="6">
         <v>9.5730261740000007</v>
       </c>
-      <c r="H98" s="11">
+      <c r="G98" s="10">
         <v>11731.690559999999</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99" s="7">
+    <row r="99" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A99" s="7">
         <v>97</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D99" s="5">
+      <c r="C99" s="5">
         <v>0.73099999999999998</v>
       </c>
+      <c r="D99" s="6">
+        <v>73.771900000000002</v>
+      </c>
       <c r="E99" s="6">
-        <v>73.771900000000002</v>
+        <v>15.425382239999999</v>
       </c>
       <c r="F99" s="6">
-        <v>15.425382239999999</v>
-      </c>
-      <c r="G99" s="6">
         <v>7.4315986140000003</v>
       </c>
-      <c r="H99" s="11">
+      <c r="G99" s="10">
         <v>10257.54477</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A100" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B100" s="7">
+    <row r="100" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D100" s="5">
+      <c r="C100" s="5">
         <v>0.73</v>
       </c>
+      <c r="D100" s="6">
+        <v>67.114000000000004</v>
+      </c>
       <c r="E100" s="6">
-        <v>67.114000000000004</v>
+        <v>14.736789999999999</v>
       </c>
       <c r="F100" s="6">
-        <v>14.736789999999999</v>
-      </c>
-      <c r="G100" s="6">
         <v>10.921547990000001</v>
       </c>
-      <c r="H100" s="11">
+      <c r="G100" s="10">
         <v>9980.1108660000009</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="7">
+    <row r="101" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
         <v>99</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D101" s="5">
+      <c r="C101" s="5">
         <v>0.73</v>
       </c>
+      <c r="D101" s="6">
+        <v>70.274299999999997</v>
+      </c>
       <c r="E101" s="6">
-        <v>70.274299999999997</v>
+        <v>13.03564357</v>
       </c>
       <c r="F101" s="6">
-        <v>13.03564357</v>
-      </c>
-      <c r="G101" s="6">
         <v>9.7768006300000003</v>
       </c>
-      <c r="H101" s="11">
+      <c r="G101" s="10">
         <v>12672.20033</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" s="7">
+    <row r="102" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D102" s="5">
+      <c r="C102" s="5">
         <v>0.72699999999999998</v>
       </c>
+      <c r="D102" s="6">
+        <v>70.861599999999996</v>
+      </c>
       <c r="E102" s="6">
-        <v>70.861599999999996</v>
+        <v>12.47714043</v>
       </c>
       <c r="F102" s="6">
-        <v>12.47714043</v>
-      </c>
-      <c r="G102" s="6">
         <v>11.89558983</v>
       </c>
-      <c r="H102" s="11">
+      <c r="G102" s="10">
         <v>7916.7857249999997</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B103" s="7">
+    <row r="103" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="5">
+      <c r="C103" s="5">
         <v>0.72</v>
       </c>
+      <c r="D103" s="6">
+        <v>72.813999999999993</v>
+      </c>
       <c r="E103" s="6">
-        <v>72.813999999999993</v>
+        <v>13.319186200000001</v>
       </c>
       <c r="F103" s="6">
-        <v>13.319186200000001</v>
-      </c>
-      <c r="G103" s="6">
         <v>8.1421860000000006</v>
       </c>
-      <c r="H103" s="11">
+      <c r="G103" s="10">
         <v>11487.62422</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B104" s="7">
+    <row r="104" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="7">
         <v>102</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D104" s="5">
+      <c r="C104" s="5">
         <v>0.72</v>
       </c>
+      <c r="D104" s="6">
+        <v>74.256299999999996</v>
+      </c>
       <c r="E104" s="6">
-        <v>74.256299999999996</v>
+        <v>10.646559720000001</v>
       </c>
       <c r="F104" s="6">
-        <v>10.646559720000001</v>
-      </c>
-      <c r="G104" s="6">
         <v>10.446680069999999</v>
       </c>
-      <c r="H104" s="11">
+      <c r="G104" s="10">
         <v>9923.7149740000004</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B105" s="7">
+    <row r="105" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D105" s="5">
+      <c r="C105" s="5">
         <v>0.71799999999999997</v>
       </c>
+      <c r="D105" s="6">
+        <v>71.911199999999994</v>
+      </c>
       <c r="E105" s="6">
-        <v>71.911199999999994</v>
+        <v>12.854279999999999</v>
       </c>
       <c r="F105" s="6">
-        <v>12.854279999999999</v>
-      </c>
-      <c r="G105" s="6">
         <v>7.5999850000000002</v>
       </c>
-      <c r="H105" s="11">
+      <c r="G105" s="10">
         <v>15335.712</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A106" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B106" s="7">
+    <row r="106" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D106" s="5">
+      <c r="C106" s="5">
         <v>0.71699999999999997</v>
       </c>
+      <c r="D106" s="6">
+        <v>70.261700000000005</v>
+      </c>
       <c r="E106" s="6">
-        <v>70.261700000000005</v>
+        <v>12.987991129999999</v>
       </c>
       <c r="F106" s="6">
-        <v>12.987991129999999</v>
-      </c>
-      <c r="G106" s="6">
         <v>8.861840248</v>
       </c>
-      <c r="H106" s="11">
+      <c r="G106" s="10">
         <v>12349.286</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A107" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B107" s="7">
+    <row r="107" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D107" s="5">
+      <c r="C107" s="5">
         <v>0.71499999999999997</v>
       </c>
+      <c r="D107" s="6">
+        <v>73.472700000000003</v>
+      </c>
       <c r="E107" s="6">
-        <v>73.472700000000003</v>
+        <v>13.358010289999999</v>
       </c>
       <c r="F107" s="6">
-        <v>13.358010289999999</v>
-      </c>
-      <c r="G107" s="6">
         <v>9.9384803769999994</v>
       </c>
-      <c r="H107" s="11">
+      <c r="G107" s="10">
         <v>6582.8994160000002</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A108" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B108" s="7">
+    <row r="108" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A108" s="7">
         <v>106</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D108" s="5">
+      <c r="C108" s="5">
         <v>0.71499999999999997</v>
       </c>
+      <c r="D108" s="6">
+        <v>71.111400000000003</v>
+      </c>
       <c r="E108" s="6">
-        <v>71.111400000000003</v>
+        <v>12.866109850000001</v>
       </c>
       <c r="F108" s="6">
-        <v>12.866109850000001</v>
-      </c>
-      <c r="G108" s="6">
         <v>8.5450401310000004</v>
       </c>
-      <c r="H108" s="11">
+      <c r="G108" s="10">
         <v>12048.303809999999</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B109" s="7">
+    <row r="109" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D109" s="5">
+      <c r="C109" s="5">
         <v>0.71399999999999997</v>
       </c>
+      <c r="D109" s="6">
+        <v>65.673400000000001</v>
+      </c>
       <c r="E109" s="6">
-        <v>65.673400000000001</v>
+        <v>12.502722159999999</v>
       </c>
       <c r="F109" s="6">
-        <v>12.502722159999999</v>
-      </c>
-      <c r="G109" s="6">
         <v>8.6174769999999992</v>
       </c>
-      <c r="H109" s="11">
+      <c r="G109" s="10">
         <v>22464.657340000002</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A110" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B110" s="7">
+    <row r="110" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D110" s="5">
+      <c r="C110" s="5">
         <v>0.71299999999999997</v>
       </c>
+      <c r="D110" s="6">
+        <v>62.341000000000001</v>
+      </c>
       <c r="E110" s="6">
-        <v>62.341000000000001</v>
+        <v>13.64371014</v>
       </c>
       <c r="F110" s="6">
-        <v>13.64371014</v>
-      </c>
-      <c r="G110" s="6">
         <v>11.37316036</v>
       </c>
-      <c r="H110" s="11">
+      <c r="G110" s="10">
         <v>12948.373250000001</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="7">
+    <row r="111" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D111" s="5">
+      <c r="C111" s="5">
         <v>0.70899999999999996</v>
       </c>
+      <c r="D111" s="6">
+        <v>70.500299999999996</v>
+      </c>
       <c r="E111" s="6">
-        <v>70.500299999999996</v>
+        <v>13.40492042</v>
       </c>
       <c r="F111" s="6">
-        <v>13.40492042</v>
-      </c>
-      <c r="G111" s="6">
         <v>9.1546286610000003</v>
       </c>
-      <c r="H111" s="11">
+      <c r="G111" s="10">
         <v>8834.4756699999998</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A112" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B112" s="7">
+    <row r="112" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D112" s="5">
+      <c r="C112" s="5">
         <v>0.70699999999999996</v>
       </c>
+      <c r="D112" s="6">
+        <v>72.767499999999998</v>
+      </c>
       <c r="E112" s="6">
-        <v>72.767499999999998</v>
+        <v>12.41885948</v>
       </c>
       <c r="F112" s="6">
-        <v>12.41885948</v>
-      </c>
-      <c r="G112" s="6">
         <v>11.4038</v>
       </c>
-      <c r="H112" s="11">
+      <c r="G112" s="10">
         <v>5307.9533739999997</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B113" s="7">
+    <row r="113" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D113" s="5">
+      <c r="C113" s="5">
         <v>0.70599999999999996</v>
       </c>
+      <c r="D113" s="6">
+        <v>65.820999999999998</v>
+      </c>
       <c r="E113" s="6">
-        <v>65.820999999999998</v>
+        <v>12.977309999999999</v>
       </c>
       <c r="F113" s="6">
-        <v>12.977309999999999</v>
-      </c>
-      <c r="G113" s="6">
         <v>9.4359999999999999</v>
       </c>
-      <c r="H113" s="11">
+      <c r="G113" s="10">
         <v>13366.93455</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B114" s="7">
+    <row r="114" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A114" s="7">
         <v>112</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D114" s="5">
+      <c r="C114" s="5">
         <v>0.70599999999999996</v>
       </c>
+      <c r="D114" s="6">
+        <v>75.047200000000004</v>
+      </c>
       <c r="E114" s="6">
-        <v>75.047200000000004</v>
+        <v>11.285869999999999</v>
       </c>
       <c r="F114" s="6">
-        <v>11.285869999999999</v>
-      </c>
-      <c r="G114" s="6">
         <v>8.7186360000000001</v>
       </c>
-      <c r="H114" s="11">
+      <c r="G114" s="10">
         <v>9525.831467</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A115" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B115" s="7">
+    <row r="115" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D115" s="5">
+      <c r="C115" s="5">
         <v>0.70499999999999996</v>
       </c>
+      <c r="D115" s="6">
+        <v>67.570300000000003</v>
+      </c>
       <c r="E115" s="6">
-        <v>67.570300000000003</v>
+        <v>13.748893860000001</v>
       </c>
       <c r="F115" s="6">
-        <v>13.748893860000001</v>
-      </c>
-      <c r="G115" s="6">
         <v>8.5565099720000006</v>
       </c>
-      <c r="H115" s="11">
+      <c r="G115" s="10">
         <v>11466.068359999999</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B116" s="7">
+    <row r="116" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D116" s="5">
+      <c r="C116" s="5">
         <v>0.70299999999999996</v>
       </c>
+      <c r="D116" s="6">
+        <v>73.618099999999998</v>
+      </c>
       <c r="E116" s="6">
-        <v>73.618099999999998</v>
+        <v>12.9519325</v>
       </c>
       <c r="F116" s="6">
-        <v>12.9519325</v>
-      </c>
-      <c r="G116" s="6">
         <v>8.370280266</v>
       </c>
-      <c r="H116" s="11">
+      <c r="G116" s="10">
         <v>7867.3713449999996</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A117" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B117" s="7">
+    <row r="117" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D117" s="5">
+      <c r="C117" s="5">
         <v>0.69899999999999995</v>
       </c>
+      <c r="D117" s="6">
+        <v>69.266400000000004</v>
+      </c>
       <c r="E117" s="6">
-        <v>69.266400000000004</v>
+        <v>13.12656975</v>
       </c>
       <c r="F117" s="6">
-        <v>13.12656975</v>
-      </c>
-      <c r="G117" s="6">
         <v>8.9690999980000008</v>
       </c>
-      <c r="H117" s="11">
+      <c r="G117" s="10">
         <v>8920.4284680000001</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A118" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B118" s="7">
+    <row r="118" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D118" s="5">
+      <c r="C118" s="5">
         <v>0.69299999999999995</v>
       </c>
+      <c r="D118" s="6">
+        <v>61.140900000000002</v>
+      </c>
       <c r="E118" s="6">
-        <v>61.140900000000002</v>
+        <v>12.26513765</v>
       </c>
       <c r="F118" s="6">
-        <v>12.26513765</v>
-      </c>
-      <c r="G118" s="6">
         <v>10.34</v>
       </c>
-      <c r="H118" s="11">
+      <c r="G118" s="10">
         <v>16198.31841</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B119" s="7">
+    <row r="119" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D119" s="5">
+      <c r="C119" s="5">
         <v>0.69199999999999995</v>
       </c>
+      <c r="D119" s="6">
+        <v>63.630400000000002</v>
+      </c>
       <c r="E119" s="6">
-        <v>63.630400000000002</v>
+        <v>14.94697094</v>
       </c>
       <c r="F119" s="6">
-        <v>14.94697094</v>
-      </c>
-      <c r="G119" s="6">
         <v>9.8277502059999993</v>
       </c>
-      <c r="H119" s="11">
+      <c r="G119" s="10">
         <v>8111.1901939999998</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A120" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B120" s="7">
+    <row r="120" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A120" s="7">
         <v>118</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D120" s="5">
+      <c r="C120" s="5">
         <v>0.69199999999999995</v>
       </c>
+      <c r="D120" s="6">
+        <v>69.977400000000003</v>
+      </c>
       <c r="E120" s="6">
-        <v>69.977400000000003</v>
+        <v>13.195300100000001</v>
       </c>
       <c r="F120" s="6">
-        <v>13.195300100000001</v>
-      </c>
-      <c r="G120" s="6">
         <v>11.37410556</v>
       </c>
-      <c r="H120" s="11">
+      <c r="G120" s="10">
         <v>4566.3038310000002</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A121" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B121" s="7">
+    <row r="121" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D121" s="5">
+      <c r="C121" s="5">
         <v>0.69099999999999995</v>
       </c>
+      <c r="D121" s="6">
+        <v>70.553600000000003</v>
+      </c>
       <c r="E121" s="6">
-        <v>70.553600000000003</v>
+        <v>12.816079999999999</v>
       </c>
       <c r="F121" s="6">
-        <v>12.816079999999999</v>
-      </c>
-      <c r="G121" s="6">
         <v>11.107277359999999</v>
       </c>
-      <c r="H121" s="11">
+      <c r="G121" s="10">
         <v>4810.8826209999997</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A122" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B122" s="7">
+    <row r="122" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D122" s="5">
+      <c r="C122" s="5">
         <v>0.68600000000000005</v>
       </c>
+      <c r="D122" s="6">
+        <v>70.377899999999997</v>
+      </c>
       <c r="E122" s="6">
-        <v>70.377899999999997</v>
+        <v>12.087473170000001</v>
       </c>
       <c r="F122" s="6">
-        <v>12.087473170000001</v>
-      </c>
-      <c r="G122" s="6">
         <v>7.9055934890000001</v>
       </c>
-      <c r="H122" s="11">
+      <c r="G122" s="10">
         <v>9977.2490730000009</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A123" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B123" s="7">
+    <row r="123" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D123" s="5">
+      <c r="C123" s="5">
         <v>0.68500000000000005</v>
       </c>
+      <c r="D123" s="6">
+        <v>71.594200000000001</v>
+      </c>
       <c r="E123" s="6">
-        <v>71.594200000000001</v>
+        <v>11.653036180000001</v>
       </c>
       <c r="F123" s="6">
-        <v>11.653036180000001</v>
-      </c>
-      <c r="G123" s="6">
         <v>11.3333938</v>
       </c>
-      <c r="H123" s="11">
+      <c r="G123" s="10">
         <v>4547.7424270000001</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A124" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B124" s="7">
+    <row r="124" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D124" s="5">
+      <c r="C124" s="5">
         <v>0.68300000000000005</v>
       </c>
+      <c r="D124" s="6">
+        <v>70.469700000000003</v>
+      </c>
       <c r="E124" s="6">
-        <v>70.469700000000003</v>
+        <v>12.99168968</v>
       </c>
       <c r="F124" s="6">
-        <v>12.99168968</v>
-      </c>
-      <c r="G124" s="6">
         <v>8.8475999830000003</v>
       </c>
-      <c r="H124" s="11">
+      <c r="G124" s="10">
         <v>6309.0997779999998</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A125" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B125" s="7">
+    <row r="125" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A125" s="7">
         <v>123</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D125" s="5">
+      <c r="C125" s="5">
         <v>0.68300000000000005</v>
       </c>
+      <c r="D125" s="6">
+        <v>74.041899999999998</v>
+      </c>
       <c r="E125" s="6">
-        <v>74.041899999999998</v>
+        <v>14.151909829999999</v>
       </c>
       <c r="F125" s="6">
-        <v>14.151909829999999</v>
-      </c>
-      <c r="G125" s="6">
         <v>5.9160000000000004</v>
       </c>
-      <c r="H125" s="11">
+      <c r="G125" s="10">
         <v>7302.8191699999998</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A126" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B126" s="7">
+    <row r="126" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D126" s="5">
+      <c r="C126" s="5">
         <v>0.67500000000000004</v>
       </c>
+      <c r="D126" s="6">
+        <v>70.747900000000001</v>
+      </c>
       <c r="E126" s="6">
-        <v>70.747900000000001</v>
+        <v>12.671347669999999</v>
       </c>
       <c r="F126" s="6">
-        <v>12.671347669999999</v>
-      </c>
-      <c r="G126" s="6">
         <v>7.150929928</v>
       </c>
-      <c r="H126" s="11">
+      <c r="G126" s="10">
         <v>8295.6658889999999</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A127" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B127" s="7">
+    <row r="127" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D127" s="5">
+      <c r="C127" s="5">
         <v>0.66700000000000004</v>
       </c>
+      <c r="D127" s="6">
+        <v>73.836799999999997</v>
+      </c>
       <c r="E127" s="6">
-        <v>73.836799999999997</v>
+        <v>12.64135783</v>
       </c>
       <c r="F127" s="6">
-        <v>12.64135783</v>
-      </c>
-      <c r="G127" s="6">
         <v>7.1440000000000001</v>
       </c>
-      <c r="H127" s="11">
+      <c r="G127" s="10">
         <v>5624.7935950000001</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A128" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B128" s="7">
+    <row r="128" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D128" s="5">
+      <c r="C128" s="5">
         <v>0.66600000000000004</v>
       </c>
+      <c r="D128" s="6">
+        <v>71.814999999999998</v>
+      </c>
       <c r="E128" s="6">
-        <v>71.814999999999998</v>
+        <v>13.225004780000001</v>
       </c>
       <c r="F128" s="6">
-        <v>13.225004780000001</v>
-      </c>
-      <c r="G128" s="6">
         <v>5.1702622829999996</v>
       </c>
-      <c r="H128" s="11">
+      <c r="G128" s="10">
         <v>9437.5415119999998</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A129" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B129" s="7">
+    <row r="129" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D129" s="5">
+      <c r="C129" s="5">
         <v>0.66200000000000003</v>
       </c>
+      <c r="D129" s="6">
+        <v>74.0518</v>
+      </c>
       <c r="E129" s="6">
-        <v>74.0518</v>
+        <v>12.55461444</v>
       </c>
       <c r="F129" s="6">
-        <v>12.55461444</v>
-      </c>
-      <c r="G129" s="6">
         <v>6.2877192869999998</v>
       </c>
-      <c r="H129" s="11">
+      <c r="G129" s="10">
         <v>6230.2001989999999</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A130" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B130" s="7">
+    <row r="130" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D130" s="5">
+      <c r="C130" s="5">
         <v>0.66100000000000003</v>
       </c>
+      <c r="D130" s="6">
+        <v>72.381100000000004</v>
+      </c>
       <c r="E130" s="6">
-        <v>72.381100000000004</v>
+        <v>12.441980360000001</v>
       </c>
       <c r="F130" s="6">
-        <v>12.441980360000001</v>
-      </c>
-      <c r="G130" s="6">
         <v>7.3790597919999996</v>
       </c>
-      <c r="H130" s="11">
+      <c r="G130" s="10">
         <v>5472.104781</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A131" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B131" s="7">
+    <row r="131" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D131" s="5">
+      <c r="C131" s="5">
         <v>0.64100000000000001</v>
       </c>
+      <c r="D131" s="6">
+        <v>64.546599999999998</v>
+      </c>
       <c r="E131" s="6">
-        <v>64.546599999999998</v>
+        <v>9.4044299999999996</v>
       </c>
       <c r="F131" s="6">
-        <v>9.4044299999999996</v>
-      </c>
-      <c r="G131" s="6">
         <v>10.573107719999999</v>
       </c>
-      <c r="H131" s="11">
+      <c r="G131" s="10">
         <v>6351.4358990000001</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A132" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B132" s="7">
+    <row r="132" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D132" s="5">
+      <c r="C132" s="5">
         <v>0.63900000000000001</v>
       </c>
+      <c r="D132" s="6">
+        <v>65.268799999999999</v>
+      </c>
       <c r="E132" s="6">
-        <v>65.268799999999999</v>
+        <v>10.239319800000001</v>
       </c>
       <c r="F132" s="6">
-        <v>10.239319800000001</v>
-      </c>
-      <c r="G132" s="6">
         <v>10.883139610000001</v>
       </c>
-      <c r="H132" s="11">
+      <c r="G132" s="10">
         <v>4619.5353930000001</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A133" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B133" s="7">
+    <row r="133" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D133" s="5">
+      <c r="C133" s="5">
         <v>0.63300000000000001</v>
       </c>
+      <c r="D133" s="6">
+        <v>67.239800000000002</v>
+      </c>
       <c r="E133" s="6">
-        <v>67.239800000000002</v>
+        <v>11.874620439999999</v>
       </c>
       <c r="F133" s="6">
-        <v>11.874620439999999</v>
-      </c>
-      <c r="G133" s="6">
         <v>6.6551091949999996</v>
       </c>
-      <c r="H133" s="11">
+      <c r="G133" s="10">
         <v>6589.9800370000003</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A134" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B134" s="7">
+    <row r="134" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D134" s="5">
+      <c r="C134" s="5">
         <v>0.63200000000000001</v>
       </c>
+      <c r="D134" s="6">
+        <v>63.795400000000001</v>
+      </c>
       <c r="E134" s="6">
-        <v>63.795400000000001</v>
+        <v>12.047780039999999</v>
       </c>
       <c r="F134" s="6">
-        <v>12.047780039999999</v>
-      </c>
-      <c r="G134" s="6">
         <v>8.3298866950000008</v>
       </c>
-      <c r="H134" s="11">
+      <c r="G134" s="10">
         <v>5744.5040170000002</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A135" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B135" s="7">
+    <row r="135" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="B135" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D135" s="5">
+      <c r="C135" s="5">
         <v>0.628</v>
       </c>
+      <c r="D135" s="6">
+        <v>70.709999999999994</v>
+      </c>
       <c r="E135" s="6">
-        <v>70.709999999999994</v>
+        <v>11.54947988</v>
       </c>
       <c r="F135" s="6">
-        <v>11.54947988</v>
-      </c>
-      <c r="G135" s="6">
         <v>7.8049559999999998</v>
       </c>
-      <c r="H135" s="11">
+      <c r="G135" s="10">
         <v>3696.173945</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A136" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B136" s="7">
+    <row r="136" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D136" s="5">
+      <c r="C136" s="5">
         <v>0.627</v>
       </c>
+      <c r="D136" s="6">
+        <v>69.236800000000002</v>
+      </c>
       <c r="E136" s="6">
-        <v>69.236800000000002</v>
+        <v>10.56245041</v>
       </c>
       <c r="F136" s="6">
-        <v>10.56245041</v>
-      </c>
-      <c r="G136" s="6">
         <v>5.6813001630000004</v>
       </c>
-      <c r="H136" s="11">
+      <c r="G136" s="10">
         <v>8723.2853169999998</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A137" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B137" s="7">
+    <row r="137" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="B137" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D137" s="5">
+      <c r="C137" s="5">
         <v>0.624</v>
       </c>
+      <c r="D137" s="6">
+        <v>67.417199999999994</v>
+      </c>
       <c r="E137" s="6">
-        <v>67.417199999999994</v>
+        <v>11.801993</v>
       </c>
       <c r="F137" s="6">
-        <v>11.801993</v>
-      </c>
-      <c r="G137" s="6">
         <v>7.9844618220000001</v>
       </c>
-      <c r="H137" s="11">
+      <c r="G137" s="10">
         <v>4062.5860339999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A138" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B138" s="7">
+    <row r="138" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D138" s="5">
+      <c r="C138" s="5">
         <v>0.621</v>
       </c>
+      <c r="D138" s="6">
+        <v>70.122900000000001</v>
+      </c>
       <c r="E138" s="6">
-        <v>70.122900000000001</v>
+        <v>10.13281417</v>
       </c>
       <c r="F138" s="6">
-        <v>10.13281417</v>
-      </c>
-      <c r="G138" s="6">
         <v>7.0884799960000002</v>
       </c>
-      <c r="H138" s="11">
+      <c r="G138" s="10">
         <v>5297.955301</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A139" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B139" s="7">
+    <row r="139" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D139" s="5">
+      <c r="C139" s="5">
         <v>0.61799999999999999</v>
       </c>
+      <c r="D139" s="6">
+        <v>67.591200000000001</v>
+      </c>
       <c r="E139" s="6">
-        <v>67.591200000000001</v>
+        <v>13.365385059999999</v>
       </c>
       <c r="F139" s="6">
-        <v>13.365385059999999</v>
-      </c>
-      <c r="G139" s="6">
         <v>6.2155994349999997</v>
       </c>
-      <c r="H139" s="11">
+      <c r="G139" s="10">
         <v>4021.3508149999998</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A140" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B140" s="7">
+    <row r="140" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="B140" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D140" s="5">
+      <c r="C140" s="5">
         <v>0.61499999999999999</v>
       </c>
+      <c r="D140" s="6">
+        <v>59.268999999999998</v>
+      </c>
       <c r="E140" s="6">
-        <v>59.268999999999998</v>
+        <v>11.92720692</v>
       </c>
       <c r="F140" s="6">
-        <v>11.92720692</v>
-      </c>
-      <c r="G140" s="6">
         <v>7.192013277</v>
       </c>
-      <c r="H140" s="11">
+      <c r="G140" s="10">
         <v>8633.5044519999992</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A141" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B141" s="7">
+    <row r="141" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D141" s="5">
+      <c r="C141" s="5">
         <v>0.60699999999999998</v>
       </c>
+      <c r="D141" s="6">
+        <v>68.0608</v>
+      </c>
       <c r="E141" s="6">
-        <v>68.0608</v>
+        <v>10.136110309999999</v>
       </c>
       <c r="F141" s="6">
-        <v>10.136110309999999</v>
-      </c>
-      <c r="G141" s="6">
         <v>5.3739999999999997</v>
       </c>
-      <c r="H141" s="11">
+      <c r="G141" s="10">
         <v>7699.5796170000003</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A142" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B142" s="7">
+    <row r="142" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A142" s="7">
         <v>140</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="B142" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D142" s="5">
+      <c r="C142" s="5">
         <v>0.60699999999999998</v>
       </c>
+      <c r="D142" s="6">
+        <v>67.736900000000006</v>
+      </c>
       <c r="E142" s="6">
-        <v>67.736900000000006</v>
+        <v>12.616097999999999</v>
       </c>
       <c r="F142" s="6">
-        <v>12.616097999999999</v>
-      </c>
-      <c r="G142" s="6">
         <v>5.4367900000000002</v>
       </c>
-      <c r="H142" s="11">
+      <c r="G142" s="10">
         <v>4460.8694349999996</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A143" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B143" s="7">
+    <row r="143" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A143" s="7">
         <v>140</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D143" s="5">
+      <c r="C143" s="5">
         <v>0.60699999999999998</v>
       </c>
+      <c r="D143" s="6">
+        <v>70.448999999999998</v>
+      </c>
       <c r="E143" s="6">
-        <v>70.448999999999998</v>
+        <v>11.53531503</v>
       </c>
       <c r="F143" s="6">
-        <v>11.53531503</v>
-      </c>
-      <c r="G143" s="6">
         <v>7.0648460000000002</v>
       </c>
-      <c r="H143" s="11">
+      <c r="G143" s="10">
         <v>3085.4116330000002</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A144" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B144" s="7">
+    <row r="144" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="B144" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D144" s="5">
+      <c r="C144" s="5">
         <v>0.60199999999999998</v>
       </c>
+      <c r="D144" s="6">
+        <v>68.4495</v>
+      </c>
       <c r="E144" s="6">
-        <v>68.4495</v>
+        <v>12.88694954</v>
       </c>
       <c r="F144" s="6">
-        <v>12.88694954</v>
-      </c>
-      <c r="G144" s="6">
         <v>5.1217927420000002</v>
       </c>
-      <c r="H144" s="11">
+      <c r="G144" s="10">
         <v>3877.3154439999998</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A145" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B145" s="7">
+    <row r="145" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D145" s="5">
+      <c r="C145" s="5">
         <v>0.59699999999999998</v>
       </c>
+      <c r="D145" s="6">
+        <v>57.0657</v>
+      </c>
       <c r="E145" s="6">
-        <v>57.0657</v>
+        <v>13.744345859999999</v>
       </c>
       <c r="F145" s="6">
-        <v>13.744345859999999</v>
-      </c>
-      <c r="G145" s="6">
         <v>5.5960000000000001</v>
       </c>
-      <c r="H145" s="11">
+      <c r="G145" s="10">
         <v>7678.5918730000003</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A146" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B146" s="7">
+    <row r="146" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D146" s="5">
+      <c r="C146" s="5">
         <v>0.59599999999999997</v>
       </c>
+      <c r="D146" s="6">
+        <v>60.594299999999997</v>
+      </c>
       <c r="E146" s="6">
-        <v>60.594299999999997</v>
+        <v>9.7349399999999999</v>
       </c>
       <c r="F146" s="6">
-        <v>9.7349399999999999</v>
-      </c>
-      <c r="G146" s="6">
         <v>5.910863</v>
       </c>
-      <c r="H146" s="11">
+      <c r="G146" s="10">
         <v>12073.959930000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A147" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B147" s="7">
+    <row r="147" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D147" s="5">
+      <c r="C147" s="5">
         <v>0.59299999999999997</v>
       </c>
+      <c r="D147" s="6">
+        <v>69.583500000000001</v>
+      </c>
       <c r="E147" s="6">
-        <v>69.583500000000001</v>
+        <v>11.46772</v>
       </c>
       <c r="F147" s="6">
-        <v>11.46772</v>
-      </c>
-      <c r="G147" s="6">
         <v>5.0880000000000001</v>
       </c>
-      <c r="H147" s="11">
+      <c r="G147" s="10">
         <v>4078.697154</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A148" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B148" s="7">
+    <row r="148" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A148" s="7">
         <v>146</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D148" s="5">
+      <c r="C148" s="5">
         <v>0.59299999999999997</v>
       </c>
+      <c r="D148" s="6">
+        <v>59.253100000000003</v>
+      </c>
       <c r="E148" s="6">
-        <v>59.253100000000003</v>
+        <v>12.110969040000001</v>
       </c>
       <c r="F148" s="6">
-        <v>12.110969040000001</v>
-      </c>
-      <c r="G148" s="6">
         <v>8.7109085010000005</v>
       </c>
-      <c r="H148" s="11">
+      <c r="G148" s="10">
         <v>3809.887158</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A149" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B149" s="7">
+    <row r="149" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D149" s="5">
+      <c r="C149" s="5">
         <v>0.58599999999999997</v>
       </c>
+      <c r="D149" s="6">
+        <v>61.6434</v>
+      </c>
       <c r="E149" s="6">
-        <v>61.6434</v>
+        <v>12.1721</v>
       </c>
       <c r="F149" s="6">
-        <v>12.1721</v>
-      </c>
-      <c r="G149" s="6">
         <v>5.4173908229999999</v>
       </c>
-      <c r="H149" s="11">
+      <c r="G149" s="10">
         <v>5465.6177909999997</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A150" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B150" s="7">
+    <row r="150" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D150" s="5">
+      <c r="C150" s="5">
         <v>0.58499999999999996</v>
       </c>
+      <c r="D150" s="6">
+        <v>65.671599999999998</v>
+      </c>
       <c r="E150" s="6">
-        <v>65.671599999999998</v>
+        <v>10.90913752</v>
       </c>
       <c r="F150" s="6">
-        <v>10.90913752</v>
-      </c>
-      <c r="G150" s="6">
         <v>6.3768000599999999</v>
       </c>
-      <c r="H150" s="11">
+      <c r="G150" s="10">
         <v>3850.524234</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A151" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B151" s="7">
+    <row r="151" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="B151" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D151" s="5">
+      <c r="C151" s="5">
         <v>0.57699999999999996</v>
       </c>
+      <c r="D151" s="6">
+        <v>72.062700000000007</v>
+      </c>
       <c r="E151" s="6">
-        <v>72.062700000000007</v>
+        <v>9.1642198560000008</v>
       </c>
       <c r="F151" s="6">
-        <v>9.1642198560000008</v>
-      </c>
-      <c r="G151" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H151" s="11">
+      <c r="G151" s="10">
         <v>4191.9338930000004</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A152" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B152" s="7">
+    <row r="152" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="B152" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D152" s="5">
+      <c r="C152" s="5">
         <v>0.57599999999999996</v>
       </c>
+      <c r="D152" s="6">
+        <v>60.333399999999997</v>
+      </c>
       <c r="E152" s="6">
-        <v>60.333399999999997</v>
+        <v>13.10859922</v>
       </c>
       <c r="F152" s="6">
-        <v>13.10859922</v>
-      </c>
-      <c r="G152" s="6">
         <v>6.1513099999999996</v>
       </c>
-      <c r="H152" s="11">
+      <c r="G152" s="10">
         <v>3620.9324080000001</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A153" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B153" s="7">
+    <row r="153" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="B153" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D153" s="5">
+      <c r="C153" s="5">
         <v>0.57499999999999996</v>
       </c>
+      <c r="D153" s="6">
+        <v>61.427</v>
+      </c>
       <c r="E153" s="6">
-        <v>61.427</v>
+        <v>10.698558350000001</v>
       </c>
       <c r="F153" s="6">
-        <v>10.698558350000001</v>
-      </c>
-      <c r="G153" s="6">
         <v>6.6520000000000001</v>
       </c>
-      <c r="H153" s="11">
+      <c r="G153" s="10">
         <v>4473.5703439999997</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A154" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B154" s="7">
+    <row r="154" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="B154" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D154" s="5">
+      <c r="C154" s="5">
         <v>0.57099999999999995</v>
       </c>
+      <c r="D154" s="6">
+        <v>63.518700000000003</v>
+      </c>
       <c r="E154" s="6">
-        <v>63.518700000000003</v>
+        <v>12.33081527</v>
       </c>
       <c r="F154" s="6">
-        <v>12.33081527</v>
-      </c>
-      <c r="G154" s="6">
         <v>6.1660000000000004</v>
       </c>
-      <c r="H154" s="11">
+      <c r="G154" s="10">
         <v>2889.2835209999998</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A155" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B155" s="7">
+    <row r="155" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="B155" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D155" s="5">
+      <c r="C155" s="5">
         <v>0.56499999999999995</v>
       </c>
+      <c r="D155" s="6">
+        <v>61.223399999999998</v>
+      </c>
       <c r="E155" s="6">
-        <v>61.223399999999998</v>
+        <v>10.92876021</v>
       </c>
       <c r="F155" s="6">
-        <v>10.92876021</v>
-      </c>
-      <c r="G155" s="6">
         <v>7.1870914939999997</v>
       </c>
-      <c r="H155" s="11">
+      <c r="G155" s="10">
         <v>3217.7677389999999</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A156" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B156" s="7">
+    <row r="156" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="B156" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D156" s="5">
+      <c r="C156" s="5">
         <v>0.56399999999999995</v>
       </c>
+      <c r="D156" s="6">
+        <v>70.347700000000003</v>
+      </c>
       <c r="E156" s="6">
-        <v>70.347700000000003</v>
+        <v>10.328690269999999</v>
       </c>
       <c r="F156" s="6">
-        <v>10.328690269999999</v>
-      </c>
-      <c r="G156" s="6">
         <v>5.7118479999999998</v>
       </c>
-      <c r="H156" s="11">
+      <c r="G156" s="10">
         <v>2481.5113620000002</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A157" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B157" s="7">
+    <row r="157" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="B157" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D157" s="5">
+      <c r="C157" s="5">
         <v>0.55800000000000005</v>
       </c>
+      <c r="D157" s="6">
+        <v>63.417400000000001</v>
+      </c>
       <c r="E157" s="6">
-        <v>63.417400000000001</v>
+        <v>11.92432393</v>
       </c>
       <c r="F157" s="6">
-        <v>11.92432393</v>
-      </c>
-      <c r="G157" s="6">
         <v>5.0786490000000004</v>
       </c>
-      <c r="H157" s="11">
+      <c r="G157" s="10">
         <v>3142.0641190000001</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A158" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B158" s="7">
+    <row r="158" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A158" s="7">
         <v>156</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="B158" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D158" s="5">
+      <c r="C158" s="5">
         <v>0.55800000000000005</v>
       </c>
+      <c r="D158" s="6">
+        <v>65.3506</v>
+      </c>
       <c r="E158" s="6">
-        <v>65.3506</v>
+        <v>10.36077074</v>
       </c>
       <c r="F158" s="6">
-        <v>10.36077074</v>
-      </c>
-      <c r="G158" s="6">
         <v>4.74</v>
       </c>
-      <c r="H158" s="11">
+      <c r="G158" s="10">
         <v>4008.6235729999999</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A159" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B159" s="7">
+    <row r="159" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="B159" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D159" s="5">
+      <c r="C159" s="5">
         <v>0.55600000000000005</v>
       </c>
+      <c r="D159" s="6">
+        <v>64.363600000000005</v>
+      </c>
       <c r="E159" s="6">
-        <v>64.363600000000005</v>
+        <v>9.3761596679999997</v>
       </c>
       <c r="F159" s="6">
-        <v>9.3761596679999997</v>
-      </c>
-      <c r="G159" s="6">
         <v>4.9188048909999997</v>
       </c>
-      <c r="H159" s="11">
+      <c r="G159" s="10">
         <v>5075.305711</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A160" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B160" s="7">
+    <row r="160" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="B160" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D160" s="5">
+      <c r="C160" s="5">
         <v>0.55000000000000004</v>
       </c>
+      <c r="D160" s="6">
+        <v>58.598300000000002</v>
+      </c>
       <c r="E160" s="6">
-        <v>58.598300000000002</v>
+        <v>10.67558002</v>
       </c>
       <c r="F160" s="6">
-        <v>10.67558002</v>
-      </c>
-      <c r="G160" s="6">
         <v>5.1991389769999996</v>
       </c>
-      <c r="H160" s="11">
+      <c r="G160" s="10">
         <v>5217.4485160000004</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A161" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B161" s="7">
+    <row r="161" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="B161" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D161" s="5">
+      <c r="C161" s="5">
         <v>0.54900000000000004</v>
       </c>
+      <c r="D161" s="6">
+        <v>66.200699999999998</v>
+      </c>
       <c r="E161" s="6">
-        <v>66.200699999999998</v>
+        <v>9.2214899060000004</v>
       </c>
       <c r="F161" s="6">
-        <v>9.2214899060000004</v>
-      </c>
-      <c r="G161" s="6">
         <v>6.3728987100000003</v>
       </c>
-      <c r="H161" s="11">
+      <c r="G161" s="10">
         <v>2664.3290959999999</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A162" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B162" s="7">
+    <row r="162" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="B162" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D162" s="5">
+      <c r="C162" s="5">
         <v>0.54400000000000004</v>
       </c>
+      <c r="D162" s="6">
+        <v>66.097899999999996</v>
+      </c>
       <c r="E162" s="6">
-        <v>66.097899999999996</v>
+        <v>8.6583499909999997</v>
       </c>
       <c r="F162" s="6">
-        <v>8.6583499909999997</v>
-      </c>
-      <c r="G162" s="6">
         <v>4.5363302230000002</v>
       </c>
-      <c r="H162" s="11">
+      <c r="G162" s="10">
         <v>4623.70543</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A163" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B163" s="7">
+    <row r="163" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="B163" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D163" s="5">
+      <c r="C163" s="5">
         <v>0.53900000000000003</v>
       </c>
+      <c r="D163" s="6">
+        <v>61.619399999999999</v>
+      </c>
       <c r="E163" s="6">
-        <v>61.619399999999999</v>
+        <v>12.95049378</v>
       </c>
       <c r="F163" s="6">
-        <v>12.95049378</v>
-      </c>
-      <c r="G163" s="6">
         <v>5.0168073670000002</v>
       </c>
-      <c r="H163" s="11">
+      <c r="G163" s="10">
         <v>2166.6190620000002</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A164" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B164" s="7">
+    <row r="164" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D164" s="5">
+      <c r="C164" s="5">
         <v>0.53500000000000003</v>
       </c>
+      <c r="D164" s="6">
+        <v>63.192399999999999</v>
+      </c>
       <c r="E164" s="6">
-        <v>63.192399999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F164" s="6">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G164" s="6">
         <v>5.5540000000000003</v>
       </c>
-      <c r="H164" s="11">
+      <c r="G164" s="10">
         <v>2847.5007460000002</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A165" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B165" s="7">
+    <row r="165" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A165" s="7">
         <v>163</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="B165" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D165" s="5">
+      <c r="C165" s="5">
         <v>0.53500000000000003</v>
       </c>
+      <c r="D165" s="6">
+        <v>52.676000000000002</v>
+      </c>
       <c r="E165" s="6">
-        <v>52.676000000000002</v>
+        <v>10.12758388</v>
       </c>
       <c r="F165" s="6">
-        <v>10.12758388</v>
-      </c>
-      <c r="G165" s="6">
         <v>7.181074153</v>
       </c>
-      <c r="H165" s="11">
+      <c r="G165" s="10">
         <v>4790.2844249999998</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A166" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B166" s="7">
+    <row r="166" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="B166" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D166" s="5">
+      <c r="C166" s="5">
         <v>0.53400000000000003</v>
       </c>
+      <c r="D166" s="6">
+        <v>66.072199999999995</v>
+      </c>
       <c r="E166" s="6">
-        <v>66.072199999999995</v>
+        <v>11.23097038</v>
       </c>
       <c r="F166" s="6">
-        <v>11.23097038</v>
-      </c>
-      <c r="G166" s="6">
         <v>4.4252923580000001</v>
       </c>
-      <c r="H166" s="11">
+      <c r="G166" s="10">
         <v>2209.7952019999998</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A167" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B167" s="7">
+    <row r="167" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="B167" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D167" s="5">
+      <c r="C167" s="5">
         <v>0.52500000000000002</v>
       </c>
+      <c r="D167" s="6">
+        <v>59.820999999999998</v>
+      </c>
       <c r="E167" s="6">
-        <v>59.820999999999998</v>
+        <v>10.766679760000001</v>
       </c>
       <c r="F167" s="6">
-        <v>10.766679760000001</v>
-      </c>
-      <c r="G167" s="6">
         <v>4.3047864450000004</v>
       </c>
-      <c r="H167" s="11">
+      <c r="G167" s="10">
         <v>3408.9659230000002</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A168" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B168" s="7">
+    <row r="168" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A168" s="7">
         <v>166</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="B168" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D168" s="5">
+      <c r="C168" s="5">
         <v>0.52500000000000002</v>
       </c>
+      <c r="D168" s="6">
+        <v>62.704799999999999</v>
+      </c>
       <c r="E168" s="6">
-        <v>62.704799999999999</v>
+        <v>10.14986994</v>
       </c>
       <c r="F168" s="6">
-        <v>10.14986994</v>
-      </c>
-      <c r="G168" s="6">
         <v>5.7309415660000003</v>
       </c>
-      <c r="H168" s="11">
+      <c r="G168" s="10">
         <v>2181.43651</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A169" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B169" s="7">
+    <row r="169" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="B169" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D169" s="5">
+      <c r="C169" s="5">
         <v>0.51400000000000001</v>
       </c>
+      <c r="D169" s="6">
+        <v>53.061999999999998</v>
+      </c>
       <c r="E169" s="6">
-        <v>53.061999999999998</v>
+        <v>12.04087801</v>
       </c>
       <c r="F169" s="6">
-        <v>12.04087801</v>
-      </c>
-      <c r="G169" s="6">
         <v>6.0101847069999996</v>
       </c>
-      <c r="H169" s="11">
+      <c r="G169" s="10">
         <v>2700.4357479999999</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A170" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B170" s="7">
+    <row r="170" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="B170" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D170" s="5">
+      <c r="C170" s="5">
         <v>0.51200000000000001</v>
       </c>
+      <c r="D170" s="6">
+        <v>62.904400000000003</v>
+      </c>
       <c r="E170" s="6">
-        <v>62.904400000000003</v>
+        <v>12.67898523</v>
       </c>
       <c r="F170" s="6">
-        <v>12.67898523</v>
-      </c>
-      <c r="G170" s="6">
         <v>4.4896953850000001</v>
       </c>
-      <c r="H170" s="11">
+      <c r="G170" s="10">
         <v>1465.6350640000001</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A171" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B171" s="7">
+    <row r="171" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="B171" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D171" s="5">
+      <c r="C171" s="5">
         <v>0.51100000000000001</v>
       </c>
+      <c r="D171" s="6">
+        <v>67.092600000000004</v>
+      </c>
       <c r="E171" s="6">
-        <v>67.092600000000004</v>
+        <v>8.9637498860000004</v>
       </c>
       <c r="F171" s="6">
-        <v>8.9637498860000004</v>
-      </c>
-      <c r="G171" s="6">
         <v>2.937938258</v>
       </c>
-      <c r="H171" s="11">
+      <c r="G171" s="10">
         <v>3344.3118250000002</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A172" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B172" s="7">
+    <row r="172" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="B172" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D172" s="5">
+      <c r="C172" s="5">
         <v>0.50900000000000001</v>
       </c>
+      <c r="D172" s="6">
+        <v>62.304900000000004</v>
+      </c>
       <c r="E172" s="6">
-        <v>62.304900000000004</v>
+        <v>7.4329799999999997</v>
       </c>
       <c r="F172" s="6">
-        <v>7.4329799999999997</v>
-      </c>
-      <c r="G172" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H172" s="11">
+      <c r="G172" s="10">
         <v>5024.9939439999998</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A173" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B173" s="7">
+    <row r="173" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="B173" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D173" s="5">
+      <c r="C173" s="5">
         <v>0.50800000000000001</v>
       </c>
+      <c r="D173" s="6">
+        <v>65.2667</v>
+      </c>
       <c r="E173" s="6">
-        <v>65.2667</v>
+        <v>7.9451878579999997</v>
       </c>
       <c r="F173" s="6">
-        <v>7.9451878579999997</v>
-      </c>
-      <c r="G173" s="6">
         <v>3.82</v>
       </c>
-      <c r="H173" s="11">
+      <c r="G173" s="10">
         <v>3575.1908400000002</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A174" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B174" s="7">
+    <row r="174" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="B174" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D174" s="5">
+      <c r="C174" s="5">
         <v>0.501</v>
       </c>
+      <c r="D174" s="6">
+        <v>64.485299999999995</v>
+      </c>
       <c r="E174" s="6">
-        <v>64.485299999999995</v>
+        <v>10.13499142</v>
       </c>
       <c r="F174" s="6">
-        <v>10.13499142</v>
-      </c>
-      <c r="G174" s="6">
         <v>5.1204685339999996</v>
       </c>
-      <c r="H174" s="11">
+      <c r="G174" s="10">
         <v>1483.5209829999999</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A175" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B175" s="7">
+    <row r="175" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="B175" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D175" s="5">
+      <c r="C175" s="5">
         <v>0.5</v>
       </c>
+      <c r="D175" s="6">
+        <v>62.082999999999998</v>
+      </c>
       <c r="E175" s="6">
-        <v>62.082999999999998</v>
+        <v>9.4186262989999996</v>
       </c>
       <c r="F175" s="6">
-        <v>9.4186262989999996</v>
-      </c>
-      <c r="G175" s="6">
         <v>4.6374874110000004</v>
       </c>
-      <c r="H175" s="11">
+      <c r="G175" s="10">
         <v>2172.207664</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A176" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B176" s="7">
+    <row r="176" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="B176" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D176" s="5">
+      <c r="C176" s="5">
         <v>0.498</v>
       </c>
+      <c r="D176" s="6">
+        <v>64.974800000000002</v>
+      </c>
       <c r="E176" s="6">
-        <v>64.974800000000002</v>
+        <v>9.6510714209999993</v>
       </c>
       <c r="F176" s="6">
-        <v>9.6510714209999993</v>
-      </c>
-      <c r="G176" s="6">
         <v>3.2015206809999999</v>
       </c>
-      <c r="H176" s="11">
+      <c r="G176" s="10">
         <v>2361.0696039999998</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A177" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B177" s="7">
+    <row r="177" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="B177" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D177" s="5">
+      <c r="C177" s="5">
         <v>0.49199999999999999</v>
       </c>
+      <c r="D177" s="6">
+        <v>66.535799999999995</v>
+      </c>
       <c r="E177" s="6">
-        <v>66.535799999999995</v>
+        <v>8.0645246279999991</v>
       </c>
       <c r="F177" s="6">
-        <v>8.0645246279999991</v>
-      </c>
-      <c r="G177" s="6">
         <v>4.8872352000000001</v>
       </c>
-      <c r="H177" s="11">
+      <c r="G177" s="10">
         <v>1728.742667</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A178" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B178" s="7">
+    <row r="178" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="B178" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D178" s="5">
+      <c r="C178" s="5">
         <v>0.48299999999999998</v>
       </c>
+      <c r="D178" s="6">
+        <v>59.652299999999997</v>
+      </c>
       <c r="E178" s="6">
-        <v>59.652299999999997</v>
+        <v>10.61306278</v>
       </c>
       <c r="F178" s="6">
-        <v>10.61306278</v>
-      </c>
-      <c r="G178" s="6">
         <v>3.5837189999999999</v>
       </c>
-      <c r="H178" s="11">
+      <c r="G178" s="10">
         <v>1908.2415900000001</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A179" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B179" s="7">
+    <row r="179" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="B179" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D179" s="5">
+      <c r="C179" s="5">
         <v>0.48099999999999998</v>
       </c>
+      <c r="D179" s="6">
+        <v>60.747199999999999</v>
+      </c>
       <c r="E179" s="6">
-        <v>60.747199999999999</v>
+        <v>10.42078972</v>
       </c>
       <c r="F179" s="6">
-        <v>10.42078972</v>
-      </c>
-      <c r="G179" s="6">
         <v>5.0819999999999999</v>
       </c>
-      <c r="H179" s="11">
+      <c r="G179" s="10">
         <v>1288.74235</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A180" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B180" s="7">
+    <row r="180" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="B180" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D180" s="5">
+      <c r="C180" s="5">
         <v>0.47899999999999998</v>
       </c>
+      <c r="D180" s="6">
+        <v>59.192999999999998</v>
+      </c>
       <c r="E180" s="6">
-        <v>59.192999999999998</v>
+        <v>9.8178644510000002</v>
       </c>
       <c r="F180" s="6">
-        <v>9.8178644510000002</v>
-      </c>
-      <c r="G180" s="6">
         <v>7.0186965160000003</v>
       </c>
-      <c r="H180" s="11">
+      <c r="G180" s="10">
         <v>1076.0987809999999</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A181" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B181" s="7">
+    <row r="181" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="B181" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D181" s="5">
+      <c r="C181" s="5">
         <v>0.47799999999999998</v>
       </c>
+      <c r="D181" s="6">
+        <v>61.982399999999998</v>
+      </c>
       <c r="E181" s="6">
-        <v>61.982399999999998</v>
+        <v>10.263843980000001</v>
       </c>
       <c r="F181" s="6">
-        <v>10.263843980000001</v>
-      </c>
-      <c r="G181" s="6">
         <v>2.98506999</v>
       </c>
-      <c r="H181" s="11">
+      <c r="G181" s="10">
         <v>1824.1909149999999</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A182" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B182" s="7">
+    <row r="182" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="B182" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D182" s="5">
+      <c r="C182" s="5">
         <v>0.47699999999999998</v>
       </c>
+      <c r="D182" s="6">
+        <v>60.062399999999997</v>
+      </c>
       <c r="E182" s="6">
-        <v>60.062399999999997</v>
+        <v>9.5733910899999994</v>
       </c>
       <c r="F182" s="6">
-        <v>9.5733910899999994</v>
-      </c>
-      <c r="G182" s="6">
         <v>4.5760812849999999</v>
       </c>
-      <c r="H182" s="11">
+      <c r="G182" s="10">
         <v>1621.512579</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A183" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B183" s="7">
+    <row r="183" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D183" s="5">
+      <c r="C183" s="5">
         <v>0.46500000000000002</v>
       </c>
+      <c r="D183" s="6">
+        <v>58.892200000000003</v>
+      </c>
       <c r="E183" s="6">
-        <v>58.892200000000003</v>
+        <v>9.8052974650000007</v>
       </c>
       <c r="F183" s="6">
-        <v>9.8052974650000007</v>
-      </c>
-      <c r="G183" s="6">
         <v>2.2021259519999998</v>
       </c>
-      <c r="H183" s="11">
+      <c r="G183" s="10">
         <v>2480.8871819999999</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A184" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B184" s="7">
+    <row r="184" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D184" s="5">
+      <c r="C184" s="5">
         <v>0.45500000000000002</v>
       </c>
+      <c r="D184" s="6">
+        <v>63.753399999999999</v>
+      </c>
       <c r="E184" s="6">
-        <v>63.753399999999999</v>
+        <v>9.0987100600000002</v>
       </c>
       <c r="F184" s="6">
-        <v>9.0987100600000002</v>
-      </c>
-      <c r="G184" s="6">
         <v>3.2</v>
       </c>
-      <c r="H184" s="11">
+      <c r="G184" s="10">
         <v>1314.2701890000001</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A185" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B185" s="7">
+    <row r="185" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="B185" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D185" s="5">
+      <c r="C185" s="5">
         <v>0.44900000000000001</v>
       </c>
+      <c r="D185" s="6">
+        <v>59.269599999999997</v>
+      </c>
       <c r="E185" s="6">
-        <v>59.269599999999997</v>
+        <v>9.1421003340000002</v>
       </c>
       <c r="F185" s="6">
-        <v>9.1421003340000002</v>
-      </c>
-      <c r="G185" s="6">
         <v>2.1149622589999999</v>
       </c>
-      <c r="H185" s="11">
+      <c r="G185" s="10">
         <v>2117.9159159999999</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A186" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B186" s="7">
+    <row r="186" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D186" s="5">
+      <c r="C186" s="5">
         <v>0.44600000000000001</v>
       </c>
+      <c r="D186" s="6">
+        <v>59.3247</v>
+      </c>
       <c r="E186" s="6">
-        <v>59.3247</v>
+        <v>10.2191516</v>
       </c>
       <c r="F186" s="6">
-        <v>10.2191516</v>
-      </c>
-      <c r="G186" s="6">
         <v>3.197641838</v>
       </c>
-      <c r="H186" s="11">
+      <c r="G186" s="10">
         <v>1198.073924</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A187" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B187" s="7">
+    <row r="187" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D187" s="5">
+      <c r="C187" s="5">
         <v>0.42799999999999999</v>
       </c>
+      <c r="D187" s="6">
+        <v>58.941400000000002</v>
+      </c>
       <c r="E187" s="6">
-        <v>58.941400000000002</v>
+        <v>7.4230376170000003</v>
       </c>
       <c r="F187" s="6">
-        <v>7.4230376170000003</v>
-      </c>
-      <c r="G187" s="6">
         <v>2.31</v>
       </c>
-      <c r="H187" s="11">
+      <c r="G187" s="10">
         <v>2132.6294429999998</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A188" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B188" s="7">
+    <row r="188" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="B188" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D188" s="5">
+      <c r="C188" s="5">
         <v>0.42599999999999999</v>
       </c>
+      <c r="D188" s="6">
+        <v>61.662700000000001</v>
+      </c>
       <c r="E188" s="6">
-        <v>61.662700000000001</v>
+        <v>10.722721890000001</v>
       </c>
       <c r="F188" s="6">
-        <v>10.722721890000001</v>
-      </c>
-      <c r="G188" s="6">
         <v>3.1292668830000001</v>
       </c>
-      <c r="H188" s="11">
+      <c r="G188" s="10">
         <v>731.7867086</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A189" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B189" s="7">
+    <row r="189" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="B189" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D189" s="5">
+      <c r="C189" s="5">
         <v>0.40400000000000003</v>
       </c>
+      <c r="D189" s="6">
+        <v>53.8947</v>
+      </c>
       <c r="E189" s="6">
-        <v>53.8947</v>
+        <v>8.0401717139999995</v>
       </c>
       <c r="F189" s="6">
-        <v>8.0401717139999995</v>
-      </c>
-      <c r="G189" s="6">
         <v>4.3339999999999996</v>
       </c>
-      <c r="H189" s="11">
+      <c r="G189" s="10">
         <v>966.05861070000003</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A190" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B190" s="7">
+    <row r="190" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="B190" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D190" s="5">
+      <c r="C190" s="5">
         <v>0.4</v>
       </c>
+      <c r="D190" s="6">
+        <v>61.576300000000003</v>
+      </c>
       <c r="E190" s="6">
-        <v>61.576300000000003</v>
+        <v>6.9571119880000003</v>
       </c>
       <c r="F190" s="6">
-        <v>6.9571119880000003</v>
-      </c>
-      <c r="G190" s="6">
         <v>2.1167172989999998</v>
       </c>
-      <c r="H190" s="11">
+      <c r="G190" s="10">
         <v>1239.8669359999999</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A191" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B191" s="7">
+    <row r="191" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="B191" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D191" s="5">
+      <c r="C191" s="5">
         <v>0.39400000000000002</v>
       </c>
+      <c r="D191" s="6">
+        <v>52.525399999999998</v>
+      </c>
       <c r="E191" s="6">
-        <v>52.525399999999998</v>
+        <v>8.0359143339999992</v>
       </c>
       <c r="F191" s="6">
-        <v>8.0359143339999992</v>
-      </c>
-      <c r="G191" s="6">
         <v>2.5737742099999998</v>
       </c>
-      <c r="H191" s="11">
+      <c r="G191" s="10">
         <v>1364.1694170000001</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A192" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B192" s="7">
+    <row r="192" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="B192" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D192" s="5">
+      <c r="C192" s="5">
         <v>0.38500000000000001</v>
       </c>
+      <c r="D192" s="6">
+        <v>54.975200000000001</v>
+      </c>
       <c r="E192" s="6">
-        <v>54.975200000000001</v>
+        <v>5.54251</v>
       </c>
       <c r="F192" s="6">
-        <v>5.54251</v>
-      </c>
-      <c r="G192" s="6">
         <v>5.7261400220000001</v>
       </c>
-      <c r="H192" s="11">
+      <c r="G192" s="10">
         <v>767.78700000000003</v>
       </c>
     </row>
@@ -6106,12 +5498,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
+      <UserInfo>
+        <DisplayName>Cecilia Calderon</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6294,23 +5691,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
-      <UserInfo>
-        <DisplayName>Cecilia Calderon</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BAEA50D-A77A-4BD1-A57D-FE81CA4DEB01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6335,11 +5729,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BAEA50D-A77A-4BD1-A57D-FE81CA4DEB01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/HDR_good.xlsx
+++ b/data/HDR_good.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/eScienceWinterSchool/PythonSession/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B7895-E83D-9842-B99D-E665EB2DECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D8D2C-0BE8-5C41-803E-4291B389E0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26020" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26020" windowHeight="17140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="better1" sheetId="2" r:id="rId1"/>
+    <sheet name="better2" sheetId="3" r:id="rId2"/>
+    <sheet name="better3" sheetId="4" r:id="rId3"/>
+    <sheet name="subset" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="220">
   <si>
     <t>HDI rank</t>
   </si>
@@ -625,6 +628,72 @@
   </si>
   <si>
     <t>GNIPC</t>
+  </si>
+  <si>
+    <t>SDG3</t>
+  </si>
+  <si>
+    <t>SDG4.3</t>
+  </si>
+  <si>
+    <t>SDG4.4</t>
+  </si>
+  <si>
+    <t>SDG8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Development Index (HDI) </t>
+  </si>
+  <si>
+    <t>Life expectancy at birth</t>
+  </si>
+  <si>
+    <t>Expected years of schooling</t>
+  </si>
+  <si>
+    <t>Mean years of schooling</t>
+  </si>
+  <si>
+    <t>Gross national income (GNI) per capita</t>
+  </si>
+  <si>
+    <t>GNI per capita rank minus HDI rank</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>(years)</t>
+  </si>
+  <si>
+    <t>(2017 PPP $)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>VERY HIGH HUMAN DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>c,e</t>
+  </si>
+  <si>
+    <t>HDIrank</t>
   </si>
 </sst>
 </file>
@@ -637,7 +706,7 @@
     <numFmt numFmtId="165" formatCode="#,###,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,###,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -676,13 +745,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -701,7 +789,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,6 +820,21 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1050,22 +1153,1798 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0CE282-238E-A143-BC5C-FE022022A17F}">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6">
+        <v>83.987200000000001</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6">
+        <v>16.50029945</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6">
+        <v>13.85966015</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="7">
+        <v>66933.004539999994</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="7">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6">
+        <v>83.233900000000006</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6">
+        <v>18.185199740000002</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="6">
+        <v>13.00362968</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="7">
+        <v>64660.106220000001</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="7">
+        <v>6</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6">
+        <v>82.678200000000004</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6">
+        <v>19.163059230000002</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" s="6">
+        <v>13.76716995</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7">
+        <v>55782.049809999997</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="7">
+        <v>11</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6">
+        <v>85.473399999999998</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="6">
+        <v>17.278169630000001</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6">
+        <v>12.22620964</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="7">
+        <v>62606.845399999998</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="7">
+        <v>6</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6">
+        <v>84.526499999999999</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6">
+        <v>21.054590229999999</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="6">
+        <v>12.726819989999999</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="7">
+        <v>49238.433349999999</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="7">
+        <v>18</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6">
+        <v>81.375299999999996</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6">
+        <v>18.714799880000001</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="6">
+        <v>12.96049023</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="7">
+        <v>60364.785949999998</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6">
+        <v>82.9833</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6">
+        <v>19.418529509999999</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="6">
+        <v>12.609720230000001</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="7">
+        <v>54489.37401</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="7">
+        <v>9</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6">
+        <v>81.997600000000006</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6">
+        <v>18.94522095</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" s="6">
+        <v>11.58222303</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="7">
+        <v>76168.984429999997</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M16" s="7">
+        <v>-3</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6">
+        <v>80.630099999999999</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6">
+        <v>17.010139469999999</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="6">
+        <v>14.090966910000001</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="7">
+        <v>54534.216820000001</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="7">
+        <v>6</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6">
+        <v>81.687299999999993</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6">
+        <v>18.693165220000001</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I18" s="6">
+        <v>12.581629749999999</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="7">
+        <v>55979.411</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6">
+        <v>82.0381</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6">
+        <v>19.051929470000001</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" s="6">
+        <v>12.87362003</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="7">
+        <v>49452.166720000001</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="7">
+        <v>11</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6">
+        <v>82.754499999999993</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6">
+        <v>16.524320599999999</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6">
+        <v>11.924880030000001</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="7">
+        <v>90918.644709999993</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M20" s="7">
+        <v>-10</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6">
+        <v>81.878699999999995</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="6">
+        <v>19.604219440000001</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="6">
+        <v>12.37567997</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="7">
+        <v>52293.399770000004</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="7">
+        <v>7</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6">
+        <v>82.451300000000003</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="6">
+        <v>20.283889769999998</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" s="6">
+        <v>12.94468975</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="7">
+        <v>44057.31394</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="7">
+        <v>16</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6">
+        <v>82.656499999999994</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="6">
+        <v>16.396259310000001</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6">
+        <v>13.83442722</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" s="7">
+        <v>46807.986190000003</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="7">
+        <v>9</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="7">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:O8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2564EFE-01B6-A842-8917-0344BC97EBBC}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D9" s="6">
+        <v>83.987200000000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>16.50029945</v>
+      </c>
+      <c r="F9" s="6">
+        <v>13.85966015</v>
+      </c>
+      <c r="G9" s="7">
+        <v>66933.004539999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D10" s="6">
+        <v>83.233900000000006</v>
+      </c>
+      <c r="E10" s="6">
+        <v>18.185199740000002</v>
+      </c>
+      <c r="F10" s="6">
+        <v>13.00362968</v>
+      </c>
+      <c r="G10" s="7">
+        <v>64660.106220000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D11" s="6">
+        <v>82.678200000000004</v>
+      </c>
+      <c r="E11" s="6">
+        <v>19.163059230000002</v>
+      </c>
+      <c r="F11" s="6">
+        <v>13.76716995</v>
+      </c>
+      <c r="G11" s="7">
+        <v>55782.049809999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D12" s="6">
+        <v>85.473399999999998</v>
+      </c>
+      <c r="E12" s="6">
+        <v>17.278169630000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12.22620964</v>
+      </c>
+      <c r="G12" s="7">
+        <v>62606.845399999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D13" s="6">
+        <v>84.526499999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>21.054590229999999</v>
+      </c>
+      <c r="F13" s="6">
+        <v>12.726819989999999</v>
+      </c>
+      <c r="G13" s="7">
+        <v>49238.433349999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D14" s="6">
+        <v>81.375299999999996</v>
+      </c>
+      <c r="E14" s="6">
+        <v>18.714799880000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>12.96049023</v>
+      </c>
+      <c r="G14" s="7">
+        <v>60364.785949999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="D15" s="6">
+        <v>82.9833</v>
+      </c>
+      <c r="E15" s="6">
+        <v>19.418529509999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>12.609720230000001</v>
+      </c>
+      <c r="G15" s="7">
+        <v>54489.37401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D16" s="6">
+        <v>81.997600000000006</v>
+      </c>
+      <c r="E16" s="6">
+        <v>18.94522095</v>
+      </c>
+      <c r="F16" s="6">
+        <v>11.58222303</v>
+      </c>
+      <c r="G16" s="7">
+        <v>76168.984429999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D17" s="6">
+        <v>80.630099999999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>17.010139469999999</v>
+      </c>
+      <c r="F17" s="6">
+        <v>14.090966910000001</v>
+      </c>
+      <c r="G17" s="7">
+        <v>54534.216820000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D18" s="6">
+        <v>81.687299999999993</v>
+      </c>
+      <c r="E18" s="6">
+        <v>18.693165220000001</v>
+      </c>
+      <c r="F18" s="6">
+        <v>12.581629749999999</v>
+      </c>
+      <c r="G18" s="7">
+        <v>55979.411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="D19" s="6">
+        <v>82.0381</v>
+      </c>
+      <c r="E19" s="6">
+        <v>19.051929470000001</v>
+      </c>
+      <c r="F19" s="6">
+        <v>12.87362003</v>
+      </c>
+      <c r="G19" s="7">
+        <v>49452.166720000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="D20" s="6">
+        <v>82.754499999999993</v>
+      </c>
+      <c r="E20" s="6">
+        <v>16.524320599999999</v>
+      </c>
+      <c r="F20" s="6">
+        <v>11.924880030000001</v>
+      </c>
+      <c r="G20" s="7">
+        <v>90918.644709999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D21" s="6">
+        <v>81.878699999999995</v>
+      </c>
+      <c r="E21" s="6">
+        <v>19.604219440000001</v>
+      </c>
+      <c r="F21" s="6">
+        <v>12.37567997</v>
+      </c>
+      <c r="G21" s="7">
+        <v>52293.399770000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D22" s="6">
+        <v>82.451300000000003</v>
+      </c>
+      <c r="E22" s="6">
+        <v>20.283889769999998</v>
+      </c>
+      <c r="F22" s="6">
+        <v>12.94468975</v>
+      </c>
+      <c r="G22" s="7">
+        <v>44057.31394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D23" s="6">
+        <v>82.656499999999994</v>
+      </c>
+      <c r="E23" s="6">
+        <v>16.396259310000001</v>
+      </c>
+      <c r="F23" s="6">
+        <v>13.83442722</v>
+      </c>
+      <c r="G23" s="7">
+        <v>46807.986190000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA77F18C-EC73-CB47-8B7E-D195B42F1442}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D9" s="6">
+        <v>83.987200000000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>16.50029945</v>
+      </c>
+      <c r="F9" s="6">
+        <v>13.85966015</v>
+      </c>
+      <c r="G9" s="7">
+        <v>66933.004539999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D10" s="6">
+        <v>83.233900000000006</v>
+      </c>
+      <c r="E10" s="6">
+        <v>18.185199740000002</v>
+      </c>
+      <c r="F10" s="6">
+        <v>13.00362968</v>
+      </c>
+      <c r="G10" s="7">
+        <v>64660.106220000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D11" s="6">
+        <v>82.678200000000004</v>
+      </c>
+      <c r="E11" s="6">
+        <v>19.163059230000002</v>
+      </c>
+      <c r="F11" s="6">
+        <v>13.76716995</v>
+      </c>
+      <c r="G11" s="7">
+        <v>55782.049809999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D12" s="6">
+        <v>85.473399999999998</v>
+      </c>
+      <c r="E12" s="6">
+        <v>17.278169630000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12.22620964</v>
+      </c>
+      <c r="G12" s="7">
+        <v>62606.845399999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D13" s="6">
+        <v>84.526499999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>21.054590229999999</v>
+      </c>
+      <c r="F13" s="6">
+        <v>12.726819989999999</v>
+      </c>
+      <c r="G13" s="7">
+        <v>49238.433349999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D14" s="6">
+        <v>81.375299999999996</v>
+      </c>
+      <c r="E14" s="6">
+        <v>18.714799880000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>12.96049023</v>
+      </c>
+      <c r="G14" s="7">
+        <v>60364.785949999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="D15" s="6">
+        <v>82.9833</v>
+      </c>
+      <c r="E15" s="6">
+        <v>19.418529509999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>12.609720230000001</v>
+      </c>
+      <c r="G15" s="7">
+        <v>54489.37401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D16" s="6">
+        <v>81.997600000000006</v>
+      </c>
+      <c r="E16" s="6">
+        <v>18.94522095</v>
+      </c>
+      <c r="F16" s="6">
+        <v>11.58222303</v>
+      </c>
+      <c r="G16" s="7">
+        <v>76168.984429999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D17" s="6">
+        <v>80.630099999999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>17.010139469999999</v>
+      </c>
+      <c r="F17" s="6">
+        <v>14.090966910000001</v>
+      </c>
+      <c r="G17" s="7">
+        <v>54534.216820000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D18" s="6">
+        <v>81.687299999999993</v>
+      </c>
+      <c r="E18" s="6">
+        <v>18.693165220000001</v>
+      </c>
+      <c r="F18" s="6">
+        <v>12.581629749999999</v>
+      </c>
+      <c r="G18" s="7">
+        <v>55979.411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="D19" s="6">
+        <v>82.0381</v>
+      </c>
+      <c r="E19" s="6">
+        <v>19.051929470000001</v>
+      </c>
+      <c r="F19" s="6">
+        <v>12.87362003</v>
+      </c>
+      <c r="G19" s="7">
+        <v>49452.166720000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="D20" s="6">
+        <v>82.754499999999993</v>
+      </c>
+      <c r="E20" s="6">
+        <v>16.524320599999999</v>
+      </c>
+      <c r="F20" s="6">
+        <v>11.924880030000001</v>
+      </c>
+      <c r="G20" s="7">
+        <v>90918.644709999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D21" s="6">
+        <v>81.878699999999995</v>
+      </c>
+      <c r="E21" s="6">
+        <v>19.604219440000001</v>
+      </c>
+      <c r="F21" s="6">
+        <v>12.37567997</v>
+      </c>
+      <c r="G21" s="7">
+        <v>52293.399770000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D22" s="6">
+        <v>82.451300000000003</v>
+      </c>
+      <c r="E22" s="6">
+        <v>20.283889769999998</v>
+      </c>
+      <c r="F22" s="6">
+        <v>12.94468975</v>
+      </c>
+      <c r="G22" s="7">
+        <v>44057.31394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D23" s="6">
+        <v>82.656499999999994</v>
+      </c>
+      <c r="E23" s="6">
+        <v>16.396259310000001</v>
+      </c>
+      <c r="F23" s="6">
+        <v>13.83442722</v>
+      </c>
+      <c r="G23" s="7">
+        <v>46807.986190000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="45.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="4"/>
     <col min="10" max="10" width="2" style="4" bestFit="1" customWidth="1"/>
@@ -1074,7 +2953,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5498,20 +7377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
-      <UserInfo>
-        <DisplayName>Cecilia Calderon</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AD45DB714643E4A8A8C58D3ECEF2B52" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0377062c7993f79e0ee2fe840fd08d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0611ad7-5071-45af-a141-b2a079deb018" xmlns:ns3="7f64e6aa-b736-4f26-84cc-faf427629e48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2869b255174fce0a927e36b6c0c9136f" ns2:_="" ns3:_="">
     <xsd:import namespace="b0611ad7-5071-45af-a141-b2a079deb018"/>
@@ -5690,6 +7555,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
+      <UserInfo>
+        <DisplayName>Cecilia Calderon</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5700,16 +7579,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E66ED643-5F43-47CB-8288-3F0E93434226}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5728,6 +7597,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BAEA50D-A77A-4BD1-A57D-FE81CA4DEB01}">
   <ds:schemaRefs>
